--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25_재비산.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1308 +397,1432 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024101513</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>11.63239226959676</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.033594898090624</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>4.512907692616958</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="F2">
         <v>3.937818698648441</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>2.671921227444738</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.4997310705046371</v>
       </c>
-      <c r="H2" t="n">
-        <v>24.28836585690216</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>25.57546088748628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024101514</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>12.01416535815017</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.141261033308397</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>4.583421875314098</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="F3">
         <v>3.800680734018893</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>2.121819798264938</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.4612902189273574</v>
       </c>
-      <c r="H3" t="n">
-        <v>24.12263901798386</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>25.40973404856798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024101515</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>12.16999110858014</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.055128125134179</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4.653936058011237</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>1.215589751107225</v>
+      </c>
+      <c r="F4">
         <v>3.545995942564019</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>2.121819798264938</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.4228493673500776</v>
       </c>
-      <c r="H4" t="n">
-        <v>23.96972039990459</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>25.18531015101181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024101516</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>13.1594846238104</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.8828623087857418</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4.865478606102656</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>2.073653104829972</v>
+      </c>
+      <c r="F5">
         <v>3.487222529151355</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>2.043233879810682</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.3844085157727978</v>
       </c>
-      <c r="H5" t="n">
-        <v>24.82269046343363</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>26.8963435682636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024101517</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>15.02160234144846</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.8397958546986319</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>4.442393509919818</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>4.576337886521317</v>
+      </c>
+      <c r="F6">
         <v>2.938670670633166</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>1.021616939905341</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.345967664195518</v>
       </c>
-      <c r="H6" t="n">
-        <v>24.61004698080094</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>29.18638486732226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024101518</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>16.03446971924322</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.3229984056533201</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3.032109855977018</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>4.790853724952004</v>
+      </c>
+      <c r="F7">
         <v>1.900340367009446</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>1.021616939905341</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.3844085157727978</v>
       </c>
-      <c r="H7" t="n">
-        <v>22.69594380356114</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>27.48679752851314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024101519</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>12.20115625866612</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.4091313138275387</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>4.160336779131258</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>2.860211179075824</v>
+      </c>
+      <c r="F8">
         <v>1.410561921903919</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>0.9430310214510838</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.07688170315455954</v>
       </c>
-      <c r="H8" t="n">
-        <v>19.20109899813448</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>22.0613101772103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024101520</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>9.715735539308211</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.4306645408710934</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2.609024759794178</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>5.434401240244064</v>
+      </c>
+      <c r="F9">
         <v>0.6465075475392962</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>1.100202858359598</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.1153225547318393</v>
       </c>
-      <c r="H9" t="n">
-        <v>14.61745780060422</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>20.05185904084828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024101521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>8.048400009707603</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.2153322704355467</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2.18593966361134</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>2.717200620122032</v>
+      </c>
+      <c r="F10">
         <v>0.6073252719308542</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>1.335960613722369</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H10" t="n">
-        <v>12.43139868098499</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>15.14859930110702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024101522</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>5.718805040779653</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.4306645408710934</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1.128226923154239</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="F11">
         <v>0.6660986853435173</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>0.9430310214510838</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.1537634063091191</v>
       </c>
-      <c r="H11" t="n">
-        <v>9.040589617908706</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>10.32768464849283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024101523</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>3.513870672195672</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.4306645408710934</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.63462764427426</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>0.6435475152920604</v>
+      </c>
+      <c r="F12">
         <v>0.3722316182802009</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>0.7072732660883131</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.07688170315455954</v>
       </c>
-      <c r="H12" t="n">
-        <v>5.735549444864098</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>6.379096960156159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024101600</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2.493212006879413</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.6459968113066401</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.7051418269713997</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>0.4290316768613734</v>
+      </c>
+      <c r="F13">
         <v>0.391822756084422</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>0.8644451029968269</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>5.100618504238701</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>5.529650181100076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024101601</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1.643961667036113</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.6890632653937495</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.4230850961828398</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="F14">
         <v>0.4310050316928641</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>1.257374695268112</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H14" t="n">
-        <v>4.482930607150958</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>4.697446445581645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024101602</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1.254397290961204</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.516797449045312</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.7756560096685398</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>0.2860211179075823</v>
+      </c>
+      <c r="F15">
         <v>0.3330493426717587</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>1.100202858359598</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.07688170315455954</v>
       </c>
-      <c r="H15" t="n">
-        <v>4.056984653860972</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>4.343005771768556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024101603</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1.14531926566023</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.1937990433919921</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.9166843750628197</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="F16">
         <v>0.3134582048675376</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>0.9430310214510838</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.550732762010943</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>3.765248600441629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024101604</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2.306221106363456</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.2799319515662109</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>1.410283653942799</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="F17">
         <v>0.7248720987561807</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>1.414546532176626</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17">
         <v>0.1153225547318393</v>
       </c>
-      <c r="H17" t="n">
-        <v>6.251177897537112</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>6.465693735967799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024101605</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>5.079919464016805</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.1722658163484374</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>2.256453846308479</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>3.432253414890988</v>
+      </c>
+      <c r="F18">
         <v>1.665246713358793</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>2.593335308990481</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>0.1153225547318393</v>
       </c>
-      <c r="H18" t="n">
-        <v>11.88254370375484</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>15.31479711864582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024101606</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>8.944398074679889</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.3014651786097653</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>4.160336779131258</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>7.079022668212661</v>
+      </c>
+      <c r="F19">
         <v>2.821123843807839</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>4.636569188801166</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>0.3844085157727978</v>
       </c>
-      <c r="H19" t="n">
-        <v>21.24830158080271</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>28.32732424901538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024101607</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>12.11545209592965</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.3229984056533201</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>3.666737500251279</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>6.14945403501302</v>
+      </c>
+      <c r="F20">
         <v>2.742759292590954</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>4.007881841167109</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.3844085157727978</v>
       </c>
-      <c r="H20" t="n">
-        <v>23.24023765136511</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>29.38969168637813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024101608</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>9.606657514007233</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.3445316326968748</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1.833368750125639</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>2.574190061168242</v>
+      </c>
+      <c r="F21">
         <v>2.155025158464321</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>2.90767898280751</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.1537634063091191</v>
       </c>
-      <c r="H21" t="n">
-        <v>17.0010254444107</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>19.57521550557894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024101609</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>11.37527978138732</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1.076661352177733</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>5.711648798468338</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>2.645695340645136</v>
+      </c>
+      <c r="F22">
         <v>4.074956663277989</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>5.26525653643522</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.1537634063091191</v>
       </c>
-      <c r="H22" t="n">
-        <v>27.65756653805571</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>30.30326187870086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024101610</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>10.22216922820559</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.119727806264843</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>4.653936058011237</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>1.644621427968599</v>
+      </c>
+      <c r="F23">
         <v>4.408006005949747</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>4.007881841167109</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.1922042578863989</v>
       </c>
-      <c r="H23" t="n">
-        <v>24.60392519748493</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>26.24854662545352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024101611</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>10.72860291710297</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1.119727806264843</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>4.160336779131258</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>1.573116148491702</v>
+      </c>
+      <c r="F24">
         <v>4.11413893888643</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>3.536366330441566</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.3844085157727978</v>
       </c>
-      <c r="H24" t="n">
-        <v>24.04358128759987</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>25.61669743609157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024101612</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>10.82209836736095</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.8613290817421868</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>4.371879327222679</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>1.501610869014807</v>
+      </c>
+      <c r="F25">
         <v>3.252128875500702</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>3.300608575078795</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.2690859610409584</v>
       </c>
-      <c r="H25" t="n">
-        <v>22.87713018794627</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>24.37874105696108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024101613</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>11.13374986822087</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.9259287628728509</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>3.878280048342699</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>0.8580633537227469</v>
+      </c>
+      <c r="F26">
         <v>4.153321214494873</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>4.400811433438394</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.3075268126182382</v>
       </c>
-      <c r="H26" t="n">
-        <v>24.79961813998792</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>25.65768149371067</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024101614</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>11.68693128224725</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.7321297194808587</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>5.429592067679778</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>1.716126707445494</v>
+      </c>
+      <c r="F27">
         <v>3.487222529151355</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>1.728890205993654</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.2690859610409584</v>
       </c>
-      <c r="H27" t="n">
-        <v>23.33385176559386</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>25.04997847303935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024101615</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>11.31294948121533</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.119727806264843</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>5.359077884982637</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>1.573116148491702</v>
+      </c>
+      <c r="F28">
         <v>3.291311151109145</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>3.536366330441566</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.6150536252364763</v>
       </c>
-      <c r="H28" t="n">
-        <v>25.23448627925</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>26.8076024277417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024101616</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>12.44268617183257</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.9689952169599602</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>5.218049519588357</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>2.073653104829972</v>
+      </c>
+      <c r="F29">
         <v>3.271720013304924</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>2.121819798264938</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.9610212894319941</v>
       </c>
-      <c r="H29" t="n">
-        <v>24.98429200938274</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>27.05794511421271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024101617</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>15.59036633051783</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.4737309949582028</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>3.314166586765579</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>3.432253414890988</v>
+      </c>
+      <c r="F30">
         <v>2.840714981612059</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>1.650304287539398</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.4997310705046371</v>
       </c>
-      <c r="H30" t="n">
-        <v>24.3690142518977</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>27.80126766678869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024101618</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>16.22146061975917</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.6244635842630855</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>4.160336779131258</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>5.005369563382691</v>
+      </c>
+      <c r="F31">
         <v>2.174616296268542</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>1.493132450630883</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.1537634063091191</v>
       </c>
-      <c r="H31" t="n">
-        <v>24.82777313636206</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>29.83314269974475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024101619</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>12.83225054790747</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.452197767914648</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>3.525709134856998</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>3.360748135414092</v>
+      </c>
+      <c r="F32">
         <v>1.528108748729246</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>1.178788776813855</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.345967664195518</v>
       </c>
-      <c r="H32" t="n">
-        <v>19.86302264041774</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>23.22377077583183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024101620</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>10.74418549214596</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.6459968113066401</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>2.750053125188458</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>4.576337886521317</v>
+      </c>
+      <c r="F33">
         <v>0.979556890211055</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>1.257374695268112</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H33" t="n">
-        <v>16.41560786569751</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>20.99194575221883</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024101621</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>8.827528761857419</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.4306645408710934</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>1.833368750125639</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>2.216663663783763</v>
+      </c>
+      <c r="F34">
         <v>0.6269164097350752</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>0.6286873476340559</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.1537634063091191</v>
       </c>
-      <c r="H34" t="n">
-        <v>12.5009292165324</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>14.71759288031617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024101622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>6.240821304720029</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.4091313138275387</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>1.762854567428499</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>1.215589751107225</v>
+      </c>
+      <c r="F35">
         <v>0.4701873073013064</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>1.021616939905341</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H35" t="n">
-        <v>9.943052284759995</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>11.15864203586722</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024101623</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>3.926808910835074</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.7536629465244136</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.7051418269713997</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>0.6435475152920604</v>
+      </c>
+      <c r="F36">
         <v>0.391822756084422</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>0.7072732660883131</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H36" t="n">
-        <v>6.523150558080903</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>7.166698073372963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024101700</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>2.984063120733798</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.904395535829296</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.7051418269713997</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>0.2860211179075823</v>
+      </c>
+      <c r="F37">
         <v>0.3330493426717587</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>0.7858591845425702</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.1537634063091191</v>
       </c>
-      <c r="H37" t="n">
-        <v>5.866272417057941</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>6.152293534965524</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024101701</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1.675126817122105</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.6244635842630855</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.5641134615771197</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>0.1430105589537912</v>
+      </c>
+      <c r="F38">
         <v>0.391822756084422</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>0.7858591845425702</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.07688170315455954</v>
       </c>
-      <c r="H38" t="n">
-        <v>4.118267506743861</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>4.261278065697653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024101702</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1.121945403095735</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.452197767914648</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.8461701923656797</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>0.07150527947689558</v>
+      </c>
+      <c r="F39">
         <v>0.3722316182802009</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>0.7858591845425702</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H39" t="n">
-        <v>3.616845017776114</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>3.688350297253009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024101703</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1.129736690617234</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.2368654974791014</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.7756560096685398</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="F40">
         <v>0.4114138938886431</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>1.021616939905341</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.07688170315455954</v>
       </c>
-      <c r="H40" t="n">
-        <v>3.652170734713419</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>3.866686573144105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024101704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>2.111438918326002</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.2368654974791014</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.9871985577599595</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.3575263973844779</v>
+      </c>
+      <c r="F41">
         <v>0.9991480280152759</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>1.57171836908514</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H41" t="n">
-        <v>5.944810222242758</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>6.302336619627237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024101705</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>5.485066415134703</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.2368654974791014</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>1.833368750125639</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>3.003221738029615</v>
+      </c>
+      <c r="F42">
         <v>1.978704918226331</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>2.90767898280751</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>0.3075268126182382</v>
       </c>
-      <c r="H42" t="n">
-        <v>12.74921137639152</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>15.75243311442114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024101706</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>8.165269322530078</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.1076661352177734</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>2.609024759794178</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>5.863432917105436</v>
+      </c>
+      <c r="F43">
         <v>2.409709949919195</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>5.81535796561502</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>0.345967664195518</v>
       </c>
-      <c r="H43" t="n">
-        <v>19.45299579727176</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>25.3164287143772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024101707</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>13.07378046107392</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.3660648597404293</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>3.314166586765579</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>6.578485711874396</v>
+      </c>
+      <c r="F44">
         <v>2.860306119416281</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>4.243639596529877</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>0.691935328391036</v>
       </c>
-      <c r="H44" t="n">
-        <v>24.54989295191712</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>31.12837866379152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024101708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>13.26856264911137</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.7536629465244136</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>4.019308413736978</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>3.432253414890988</v>
+      </c>
+      <c r="F45">
         <v>3.271720013304924</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>4.793741025709677</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.3075268126182382</v>
       </c>
-      <c r="H45" t="n">
-        <v>26.4145218610056</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>29.84677527589659</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024101709</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>11.39086235643031</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1.162794260351952</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>6.205248077348318</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>3.146232296983404</v>
+      </c>
+      <c r="F46">
         <v>3.585178218172461</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>5.108084699526706</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.3075268126182382</v>
       </c>
-      <c r="H46" t="n">
-        <v>27.75969442444799</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>30.9059267214314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024101710</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>8.47692082339</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.8828623087857418</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>3.596223317554138</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>1.358600310061016</v>
+      </c>
+      <c r="F47">
         <v>3.173764324283818</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>3.457780411987307</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.1922042578863989</v>
       </c>
-      <c r="H47" t="n">
-        <v>19.7797554438874</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>21.13835575394842</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024101711</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>8.897650349550904</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.8828623087857418</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>3.173138221371298</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>1.358600310061016</v>
+      </c>
+      <c r="F48">
         <v>2.977852946241607</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>3.064850819716023</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.3844085157727978</v>
       </c>
-      <c r="H48" t="n">
-        <v>19.38076316143837</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>20.73936347149939</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024101712</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>8.975563224765882</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.6890632653937495</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>3.384680769462719</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="F49">
         <v>2.350936536506532</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>2.829093064353252</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.2690859610409584</v>
       </c>
-      <c r="H49" t="n">
-        <v>18.49842282152309</v>
+      <c r="I49">
+        <v>19.78551785210721</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25_재비산.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>11.63239226959676</v>
+        <v>16.86191122905895</v>
       </c>
       <c r="C2">
-        <v>1.033594898090624</v>
+        <v>1.498263213145279</v>
       </c>
       <c r="D2">
-        <v>4.512907692616958</v>
+        <v>6.541754020515191</v>
       </c>
       <c r="E2">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F2">
-        <v>3.937818698648441</v>
+        <v>5.708125017953871</v>
       </c>
       <c r="G2">
-        <v>2.671921227444738</v>
+        <v>3.873124074913375</v>
       </c>
       <c r="H2">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I2">
-        <v>25.57546088748628</v>
+        <v>37.07329852125186</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>12.01416535815017</v>
+        <v>17.41531621916204</v>
       </c>
       <c r="C3">
-        <v>1.141261033308397</v>
+        <v>1.654332297847911</v>
       </c>
       <c r="D3">
-        <v>4.583421875314098</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="E3">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F3">
-        <v>3.800680734018893</v>
+        <v>5.509334594443041</v>
       </c>
       <c r="G3">
-        <v>2.121819798264938</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="H3">
-        <v>0.4612902189273574</v>
+        <v>0.6686702564799173</v>
       </c>
       <c r="I3">
-        <v>25.40973404856798</v>
+        <v>36.83306665996768</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>12.16999110858014</v>
+        <v>17.64119580695921</v>
       </c>
       <c r="C4">
-        <v>1.055128125134179</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="D4">
-        <v>4.653936058011237</v>
+        <v>6.746183833656289</v>
       </c>
       <c r="E4">
-        <v>1.215589751107225</v>
+        <v>1.762076621822386</v>
       </c>
       <c r="F4">
-        <v>3.545995942564019</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="G4">
-        <v>2.121819798264938</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="H4">
-        <v>0.4228493673500776</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="I4">
-        <v>25.18531015101181</v>
+        <v>36.50774958411886</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>13.1594846238104</v>
+        <v>19.07553118947126</v>
       </c>
       <c r="C5">
-        <v>0.8828623087857418</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="D5">
-        <v>4.865478606102656</v>
+        <v>7.052828553367942</v>
       </c>
       <c r="E5">
-        <v>2.073653104829972</v>
+        <v>3.005895413697013</v>
       </c>
       <c r="F5">
-        <v>3.487222529151355</v>
+        <v>5.054956483561139</v>
       </c>
       <c r="G5">
-        <v>2.043233879810682</v>
+        <v>2.961800763169051</v>
       </c>
       <c r="H5">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I5">
-        <v>26.8963435682636</v>
+        <v>38.98800411156126</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>15.02160234144846</v>
+        <v>21.77479226364747</v>
       </c>
       <c r="C6">
-        <v>0.8397958546986319</v>
+        <v>1.217338860680539</v>
       </c>
       <c r="D6">
-        <v>4.442393509919818</v>
+        <v>6.439539113944641</v>
       </c>
       <c r="E6">
-        <v>4.576337886521317</v>
+        <v>6.633700223331335</v>
       </c>
       <c r="F6">
-        <v>2.938670670633166</v>
+        <v>4.259794789517814</v>
       </c>
       <c r="G6">
-        <v>1.021616939905341</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="H6">
-        <v>0.345967664195518</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="I6">
-        <v>29.18638486732226</v>
+        <v>42.30756832506626</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>16.03446971924322</v>
+        <v>23.24300958432908</v>
       </c>
       <c r="C7">
-        <v>0.3229984056533201</v>
+        <v>0.4682072541078996</v>
       </c>
       <c r="D7">
-        <v>3.032109855977018</v>
+        <v>4.395240982533642</v>
       </c>
       <c r="E7">
-        <v>4.790853724952004</v>
+        <v>6.944654921299993</v>
       </c>
       <c r="F7">
-        <v>1.900340367009446</v>
+        <v>2.75466729722152</v>
       </c>
       <c r="G7">
-        <v>1.021616939905341</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="H7">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I7">
-        <v>27.48679752851314</v>
+        <v>39.84390563480992</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>12.20115625866612</v>
+        <v>17.68637172451864</v>
       </c>
       <c r="C8">
-        <v>0.4091313138275387</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="D8">
-        <v>4.160336779131258</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="E8">
-        <v>2.860211179075824</v>
+        <v>4.146062639582086</v>
       </c>
       <c r="F8">
-        <v>1.410561921903919</v>
+        <v>2.044701498968551</v>
       </c>
       <c r="G8">
-        <v>0.9430310214510838</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="H8">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I8">
-        <v>22.0613101772103</v>
+        <v>31.97930788296486</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>9.715735539308211</v>
+        <v>14.08359229915372</v>
       </c>
       <c r="C9">
-        <v>0.4306645408710934</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="D9">
-        <v>2.609024759794178</v>
+        <v>3.781951543110346</v>
       </c>
       <c r="E9">
-        <v>5.434401240244064</v>
+        <v>7.877519015205961</v>
       </c>
       <c r="F9">
-        <v>0.6465075475392962</v>
+        <v>0.937154853693919</v>
       </c>
       <c r="G9">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H9">
-        <v>0.1153225547318393</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="I9">
-        <v>20.05185904084828</v>
+        <v>29.06647740964703</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>8.048400009707603</v>
+        <v>11.66668070972398</v>
       </c>
       <c r="C10">
-        <v>0.2153322704355467</v>
+        <v>0.3121381694052664</v>
       </c>
       <c r="D10">
-        <v>2.18593966361134</v>
+        <v>3.168662103687046</v>
       </c>
       <c r="E10">
-        <v>2.717200620122032</v>
+        <v>3.938759507602981</v>
       </c>
       <c r="F10">
-        <v>0.6073252719308542</v>
+        <v>0.8803575898336815</v>
       </c>
       <c r="G10">
-        <v>1.335960613722369</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="H10">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I10">
-        <v>15.14859930110702</v>
+        <v>21.95888263908297</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>5.718805040779653</v>
+        <v>8.289780872156246</v>
       </c>
       <c r="C11">
-        <v>0.4306645408710934</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="D11">
-        <v>1.128226923154239</v>
+        <v>1.635438505128798</v>
       </c>
       <c r="E11">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F11">
-        <v>0.6660986853435173</v>
+        <v>0.9655534856240381</v>
       </c>
       <c r="G11">
-        <v>0.9430310214510838</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="H11">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I11">
-        <v>10.32768464849283</v>
+        <v>14.97065244264135</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>3.513870672195672</v>
+        <v>5.093584704826249</v>
       </c>
       <c r="C12">
-        <v>0.4306645408710934</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="D12">
-        <v>0.63462764427426</v>
+        <v>0.9199341591349488</v>
       </c>
       <c r="E12">
-        <v>0.6435475152920604</v>
+        <v>0.9328640939059692</v>
       </c>
       <c r="F12">
-        <v>0.3722316182802009</v>
+        <v>0.5395740066722564</v>
       </c>
       <c r="G12">
-        <v>0.7072732660883131</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="H12">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I12">
-        <v>6.379096960156159</v>
+        <v>9.246917071808971</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>2.493212006879413</v>
+        <v>3.614073404754765</v>
       </c>
       <c r="C13">
-        <v>0.6459968113066401</v>
+        <v>0.9364145082157992</v>
       </c>
       <c r="D13">
-        <v>0.7051418269713997</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="E13">
-        <v>0.4290316768613734</v>
+        <v>0.6219093959373129</v>
       </c>
       <c r="F13">
-        <v>0.391822756084422</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="G13">
-        <v>0.8644451029968269</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="I13">
-        <v>5.529650181100076</v>
+        <v>8.015588566864196</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>1.643961667036113</v>
+        <v>2.383029651260175</v>
       </c>
       <c r="C14">
-        <v>0.6890632653937495</v>
+        <v>0.9988421420968526</v>
       </c>
       <c r="D14">
-        <v>0.4230850961828398</v>
+        <v>0.6132894394232992</v>
       </c>
       <c r="E14">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F14">
-        <v>0.4310050316928641</v>
+        <v>0.6247699024626128</v>
       </c>
       <c r="G14">
-        <v>1.257374695268112</v>
+        <v>1.822646623488646</v>
       </c>
       <c r="H14">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I14">
-        <v>4.697446445581645</v>
+        <v>6.809254978073568</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>1.254397290961204</v>
+        <v>1.818330681767241</v>
       </c>
       <c r="C15">
-        <v>0.516797449045312</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="D15">
-        <v>0.7756560096685398</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="E15">
-        <v>0.2860211179075823</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="F15">
-        <v>0.3330493426717587</v>
+        <v>0.482776742812019</v>
       </c>
       <c r="G15">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H15">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I15">
-        <v>4.343005771768556</v>
+        <v>6.295470105685376</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>1.14531926566023</v>
+        <v>1.66021497030922</v>
       </c>
       <c r="C16">
-        <v>0.1937990433919921</v>
+        <v>0.2809243524647397</v>
       </c>
       <c r="D16">
-        <v>0.9166843750628197</v>
+        <v>1.328793785417148</v>
       </c>
       <c r="E16">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F16">
-        <v>0.3134582048675376</v>
+        <v>0.4543781108819002</v>
       </c>
       <c r="G16">
-        <v>0.9430310214510838</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="H16">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I16">
-        <v>3.765248600441629</v>
+        <v>5.457973406031476</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>2.306221106363456</v>
+        <v>3.343017899398157</v>
       </c>
       <c r="C17">
-        <v>0.2799319515662109</v>
+        <v>0.4057796202268465</v>
       </c>
       <c r="D17">
-        <v>1.410283653942799</v>
+        <v>2.044298131410997</v>
       </c>
       <c r="E17">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F17">
-        <v>0.7248720987561807</v>
+        <v>1.050749381414394</v>
       </c>
       <c r="G17">
-        <v>1.414546532176626</v>
+        <v>2.050477451424727</v>
       </c>
       <c r="H17">
-        <v>0.1153225547318393</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="I17">
-        <v>6.465693735967799</v>
+        <v>9.37244474596376</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>5.079919464016805</v>
+        <v>7.363674562187833</v>
       </c>
       <c r="C18">
-        <v>0.1722658163484374</v>
+        <v>0.2497105355242132</v>
       </c>
       <c r="D18">
-        <v>2.256453846308479</v>
+        <v>3.270877010257596</v>
       </c>
       <c r="E18">
-        <v>3.432253414890988</v>
+        <v>4.975275167498503</v>
       </c>
       <c r="F18">
-        <v>1.665246713358793</v>
+        <v>2.413883714060095</v>
       </c>
       <c r="G18">
-        <v>2.593335308990481</v>
+        <v>3.759208660945333</v>
       </c>
       <c r="H18">
-        <v>0.1153225547318393</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="I18">
-        <v>15.31479711864582</v>
+        <v>22.19979721459355</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>8.944398074679889</v>
+        <v>12.96548833955772</v>
       </c>
       <c r="C19">
-        <v>0.3014651786097653</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="D19">
-        <v>4.160336779131258</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="E19">
-        <v>7.079022668212661</v>
+        <v>10.26150503296566</v>
       </c>
       <c r="F19">
-        <v>2.821123843807839</v>
+        <v>4.089402997937102</v>
       </c>
       <c r="G19">
-        <v>4.636569188801166</v>
+        <v>6.721009424114385</v>
       </c>
       <c r="H19">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I19">
-        <v>28.32732424901538</v>
+        <v>41.06230393313795</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>12.11545209592965</v>
+        <v>17.56213795123019</v>
       </c>
       <c r="C20">
-        <v>0.3229984056533201</v>
+        <v>0.4682072541078996</v>
       </c>
       <c r="D20">
-        <v>3.666737500251279</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="E20">
-        <v>6.14945403501302</v>
+        <v>8.914034675101485</v>
       </c>
       <c r="F20">
-        <v>2.742759292590954</v>
+        <v>3.975808470216626</v>
       </c>
       <c r="G20">
-        <v>4.007881841167109</v>
+        <v>5.809686112370061</v>
       </c>
       <c r="H20">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I20">
-        <v>29.38969168637813</v>
+        <v>42.60227481842811</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>9.606657514007233</v>
+        <v>13.92547658769571</v>
       </c>
       <c r="C21">
-        <v>0.3445316326968748</v>
+        <v>0.4994210710484263</v>
       </c>
       <c r="D21">
-        <v>1.833368750125639</v>
+        <v>2.657587570834296</v>
       </c>
       <c r="E21">
-        <v>2.574190061168242</v>
+        <v>3.731456375623877</v>
       </c>
       <c r="F21">
-        <v>2.155025158464321</v>
+        <v>3.123849512313063</v>
       </c>
       <c r="G21">
-        <v>2.90767898280751</v>
+        <v>4.214870316817495</v>
       </c>
       <c r="H21">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I21">
-        <v>19.57521550557894</v>
+        <v>28.37555151982617</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>11.37527978138732</v>
+        <v>16.48920990919362</v>
       </c>
       <c r="C22">
-        <v>1.076661352177733</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="D22">
-        <v>5.711648798468338</v>
+        <v>8.279407432214541</v>
       </c>
       <c r="E22">
-        <v>2.645695340645136</v>
+        <v>3.835107941613429</v>
       </c>
       <c r="F22">
-        <v>4.074956663277989</v>
+        <v>5.906915441464702</v>
       </c>
       <c r="G22">
-        <v>5.26525653643522</v>
+        <v>7.632332735858708</v>
       </c>
       <c r="H22">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I22">
-        <v>30.30326187870086</v>
+        <v>43.92655439286464</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>10.22216922820559</v>
+        <v>14.81770095949454</v>
       </c>
       <c r="C23">
-        <v>1.119727806264843</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="D23">
-        <v>4.653936058011237</v>
+        <v>6.746183833656289</v>
       </c>
       <c r="E23">
-        <v>1.644621427968599</v>
+        <v>2.383986017759699</v>
       </c>
       <c r="F23">
-        <v>4.408006005949747</v>
+        <v>6.389692184276721</v>
       </c>
       <c r="G23">
-        <v>4.007881841167109</v>
+        <v>5.809686112370061</v>
       </c>
       <c r="H23">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I23">
-        <v>26.24854662545352</v>
+        <v>38.04898019533132</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>10.72860291710297</v>
+        <v>15.55180961983535</v>
       </c>
       <c r="C24">
-        <v>1.119727806264843</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="D24">
-        <v>4.160336779131258</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="E24">
-        <v>1.573116148491702</v>
+        <v>2.280334451770146</v>
       </c>
       <c r="F24">
-        <v>4.11413893888643</v>
+        <v>5.963712705324939</v>
       </c>
       <c r="G24">
-        <v>3.536366330441566</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="H24">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I24">
-        <v>25.61669743609157</v>
+        <v>37.13307358779533</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>10.82209836736095</v>
+        <v>15.68733737251366</v>
       </c>
       <c r="C25">
-        <v>0.8613290817421868</v>
+        <v>1.248552677621066</v>
       </c>
       <c r="D25">
-        <v>4.371879327222679</v>
+        <v>6.337324207374092</v>
       </c>
       <c r="E25">
-        <v>1.501610869014807</v>
+        <v>2.176682885780594</v>
       </c>
       <c r="F25">
-        <v>3.252128875500702</v>
+        <v>4.714172900399714</v>
       </c>
       <c r="G25">
-        <v>3.300608575078795</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="H25">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I25">
-        <v>24.37874105696108</v>
+        <v>35.33857507996011</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>11.13374986822087</v>
+        <v>16.139096548108</v>
       </c>
       <c r="C26">
-        <v>0.9259287628728509</v>
+        <v>1.342194128442646</v>
       </c>
       <c r="D26">
-        <v>3.878280048342699</v>
+        <v>5.621819861380242</v>
       </c>
       <c r="E26">
-        <v>0.8580633537227469</v>
+        <v>1.243818791874626</v>
       </c>
       <c r="F26">
-        <v>4.153321214494873</v>
+        <v>6.020509969185178</v>
       </c>
       <c r="G26">
-        <v>4.400811433438394</v>
+        <v>6.379263182210263</v>
       </c>
       <c r="H26">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I26">
-        <v>25.65768149371067</v>
+        <v>37.19248265218756</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>11.68693128224725</v>
+        <v>16.94096908478797</v>
       </c>
       <c r="C27">
-        <v>0.7321297194808587</v>
+        <v>1.061269775977906</v>
       </c>
       <c r="D27">
-        <v>5.429592067679778</v>
+        <v>7.870547805932339</v>
       </c>
       <c r="E27">
-        <v>1.716126707445494</v>
+        <v>2.487637583749251</v>
       </c>
       <c r="F27">
-        <v>3.487222529151355</v>
+        <v>5.054956483561139</v>
       </c>
       <c r="G27">
-        <v>1.728890205993654</v>
+        <v>2.506139107296889</v>
       </c>
       <c r="H27">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I27">
-        <v>25.04997847303935</v>
+        <v>36.31157749091877</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>11.31294948121533</v>
+        <v>16.39885807407475</v>
       </c>
       <c r="C28">
-        <v>1.119727806264843</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="D28">
-        <v>5.359077884982637</v>
+        <v>7.76833289936179</v>
       </c>
       <c r="E28">
-        <v>1.573116148491702</v>
+        <v>2.280334451770146</v>
       </c>
       <c r="F28">
-        <v>3.291311151109145</v>
+        <v>4.770970164259952</v>
       </c>
       <c r="G28">
-        <v>3.536366330441566</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="H28">
-        <v>0.6150536252364763</v>
+        <v>0.891560341973223</v>
       </c>
       <c r="I28">
-        <v>26.8076024277417</v>
+        <v>38.85936804090906</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>12.44268617183257</v>
+        <v>18.03648508560424</v>
       </c>
       <c r="C29">
-        <v>0.9689952169599602</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="D29">
-        <v>5.218049519588357</v>
+        <v>7.563903086220692</v>
       </c>
       <c r="E29">
-        <v>2.073653104829972</v>
+        <v>3.005895413697013</v>
       </c>
       <c r="F29">
-        <v>3.271720013304924</v>
+        <v>4.742571532329834</v>
       </c>
       <c r="G29">
-        <v>2.121819798264938</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="H29">
-        <v>0.9610212894319941</v>
+        <v>1.39306303433316</v>
       </c>
       <c r="I29">
-        <v>27.05794511421271</v>
+        <v>39.22225609164573</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>15.59036633051783</v>
+        <v>22.59925275910716</v>
       </c>
       <c r="C30">
-        <v>0.4737309949582028</v>
+        <v>0.686703972691586</v>
       </c>
       <c r="D30">
-        <v>3.314166586765579</v>
+        <v>4.804100608815844</v>
       </c>
       <c r="E30">
-        <v>3.432253414890988</v>
+        <v>4.975275167498503</v>
       </c>
       <c r="F30">
-        <v>2.840714981612059</v>
+        <v>4.11780162986722</v>
       </c>
       <c r="G30">
-        <v>1.650304287539398</v>
+        <v>2.392223693328848</v>
       </c>
       <c r="H30">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I30">
-        <v>27.80126766678869</v>
+        <v>40.29975060916241</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>16.22146061975917</v>
+        <v>23.51406508968569</v>
       </c>
       <c r="C31">
-        <v>0.6244635842630855</v>
+        <v>0.9052006912752727</v>
       </c>
       <c r="D31">
-        <v>4.160336779131258</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="E31">
-        <v>5.005369563382691</v>
+        <v>7.255609619268649</v>
       </c>
       <c r="F31">
-        <v>2.174616296268542</v>
+        <v>3.152248144243182</v>
       </c>
       <c r="G31">
-        <v>1.493132450630883</v>
+        <v>2.164392865392768</v>
       </c>
       <c r="H31">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I31">
-        <v>29.83314269974475</v>
+        <v>43.24508598302131</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>12.83225054790747</v>
+        <v>18.60118405509718</v>
       </c>
       <c r="C32">
-        <v>0.452197767914648</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="D32">
-        <v>3.525709134856998</v>
+        <v>5.110745328527495</v>
       </c>
       <c r="E32">
-        <v>3.360748135414092</v>
+        <v>4.871623601508951</v>
       </c>
       <c r="F32">
-        <v>1.528108748729246</v>
+        <v>2.215093290549263</v>
       </c>
       <c r="G32">
-        <v>1.178788776813855</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="H32">
-        <v>0.345967664195518</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="I32">
-        <v>23.22377077583183</v>
+        <v>33.66437033331449</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>10.74418549214596</v>
+        <v>15.57439757861507</v>
       </c>
       <c r="C33">
-        <v>0.6459968113066401</v>
+        <v>0.9364145082157992</v>
       </c>
       <c r="D33">
-        <v>2.750053125188458</v>
+        <v>3.986381356251445</v>
       </c>
       <c r="E33">
-        <v>4.576337886521317</v>
+        <v>6.633700223331335</v>
       </c>
       <c r="F33">
-        <v>0.979556890211055</v>
+        <v>1.419931596505938</v>
       </c>
       <c r="G33">
-        <v>1.257374695268112</v>
+        <v>1.822646623488646</v>
       </c>
       <c r="H33">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I33">
-        <v>20.99194575221883</v>
+        <v>30.42919440778156</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>8.827528761857419</v>
+        <v>12.79607864870985</v>
       </c>
       <c r="C34">
-        <v>0.4306645408710934</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="D34">
-        <v>1.833368750125639</v>
+        <v>2.657587570834296</v>
       </c>
       <c r="E34">
-        <v>2.216663663783763</v>
+        <v>3.213198545676115</v>
       </c>
       <c r="F34">
-        <v>0.6269164097350752</v>
+        <v>0.9087562217638004</v>
       </c>
       <c r="G34">
-        <v>0.6286873476340559</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="H34">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I34">
-        <v>14.71759288031617</v>
+        <v>21.33411072303222</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>6.240821304720029</v>
+        <v>9.046477491276772</v>
       </c>
       <c r="C35">
-        <v>0.4091313138275387</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="D35">
-        <v>1.762854567428499</v>
+        <v>2.555372664263747</v>
       </c>
       <c r="E35">
-        <v>1.215589751107225</v>
+        <v>1.762076621822386</v>
       </c>
       <c r="F35">
-        <v>0.4701873073013064</v>
+        <v>0.6815671663228503</v>
       </c>
       <c r="G35">
-        <v>1.021616939905341</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="H35">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I35">
-        <v>11.15864203586722</v>
+        <v>16.17517936851361</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>3.926808910835074</v>
+        <v>5.69216561248876</v>
       </c>
       <c r="C36">
-        <v>0.7536629465244136</v>
+        <v>1.092483592918432</v>
       </c>
       <c r="D36">
-        <v>0.7051418269713997</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="E36">
-        <v>0.6435475152920604</v>
+        <v>0.9328640939059692</v>
       </c>
       <c r="F36">
-        <v>0.391822756084422</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="G36">
-        <v>0.7072732660883131</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="H36">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I36">
-        <v>7.166698073372963</v>
+        <v>10.38859625070672</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>2.984063120733798</v>
+        <v>4.325594106315863</v>
       </c>
       <c r="C37">
-        <v>0.904395535829296</v>
+        <v>1.310980311502119</v>
       </c>
       <c r="D37">
-        <v>0.7051418269713997</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="E37">
-        <v>0.2860211179075823</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="F37">
-        <v>0.3330493426717587</v>
+        <v>0.482776742812019</v>
       </c>
       <c r="G37">
-        <v>0.7858591845425702</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="H37">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I37">
-        <v>6.152293534965524</v>
+        <v>8.918150715467419</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>1.675126817122105</v>
+        <v>2.428205568819608</v>
       </c>
       <c r="C38">
-        <v>0.6244635842630855</v>
+        <v>0.9052006912752727</v>
       </c>
       <c r="D38">
-        <v>0.5641134615771197</v>
+        <v>0.8177192525643989</v>
       </c>
       <c r="E38">
-        <v>0.1430105589537912</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="F38">
-        <v>0.391822756084422</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="G38">
-        <v>0.7858591845425702</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="H38">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I38">
-        <v>4.261278065697653</v>
+        <v>6.177000465667816</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>1.121945403095735</v>
+        <v>1.626333032139645</v>
       </c>
       <c r="C39">
-        <v>0.452197767914648</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="D39">
-        <v>0.8461701923656797</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="E39">
-        <v>0.07150527947689558</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="F39">
-        <v>0.3722316182802009</v>
+        <v>0.5395740066722564</v>
       </c>
       <c r="G39">
-        <v>0.7858591845425702</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="H39">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I39">
-        <v>3.688350297253009</v>
+        <v>5.346504300452841</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>1.129736690617234</v>
+        <v>1.637627011529503</v>
       </c>
       <c r="C40">
-        <v>0.2368654974791014</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="D40">
-        <v>0.7756560096685398</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="E40">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F40">
-        <v>0.4114138938886431</v>
+        <v>0.5963712705324939</v>
       </c>
       <c r="G40">
-        <v>1.021616939905341</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="H40">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I40">
-        <v>3.866686573144105</v>
+        <v>5.605014362983673</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>2.111438918326002</v>
+        <v>3.060668414651694</v>
       </c>
       <c r="C41">
-        <v>0.2368654974791014</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="D41">
-        <v>0.9871985577599595</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="E41">
-        <v>0.3575263973844779</v>
+        <v>0.5182578299477607</v>
       </c>
       <c r="F41">
-        <v>0.9991480280152759</v>
+        <v>1.448330228436057</v>
       </c>
       <c r="G41">
-        <v>1.57171836908514</v>
+        <v>2.278308279360808</v>
       </c>
       <c r="H41">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I41">
-        <v>6.302336619627237</v>
+        <v>9.135647952103138</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>5.485066415134703</v>
+        <v>7.950961490460482</v>
       </c>
       <c r="C42">
-        <v>0.2368654974791014</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="D42">
-        <v>1.833368750125639</v>
+        <v>2.657587570834296</v>
       </c>
       <c r="E42">
-        <v>3.003221738029615</v>
+        <v>4.353365771561188</v>
       </c>
       <c r="F42">
-        <v>1.978704918226331</v>
+        <v>2.868261824941994</v>
       </c>
       <c r="G42">
-        <v>2.90767898280751</v>
+        <v>4.214870316817495</v>
       </c>
       <c r="H42">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I42">
-        <v>15.75243311442114</v>
+        <v>22.83417913194786</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>8.165269322530078</v>
+        <v>11.83609040057185</v>
       </c>
       <c r="C43">
-        <v>0.1076661352177734</v>
+        <v>0.1560690847026332</v>
       </c>
       <c r="D43">
-        <v>2.609024759794178</v>
+        <v>3.781951543110346</v>
       </c>
       <c r="E43">
-        <v>5.863432917105436</v>
+        <v>8.499428411143276</v>
       </c>
       <c r="F43">
-        <v>2.409709949919195</v>
+        <v>3.493031727404607</v>
       </c>
       <c r="G43">
-        <v>5.81535796561502</v>
+        <v>8.42974063363499</v>
       </c>
       <c r="H43">
-        <v>0.345967664195518</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="I43">
-        <v>25.3164287143772</v>
+        <v>36.69781449292763</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>13.07378046107392</v>
+        <v>18.95129741618281</v>
       </c>
       <c r="C44">
-        <v>0.3660648597404293</v>
+        <v>0.5306348879889531</v>
       </c>
       <c r="D44">
-        <v>3.314166586765579</v>
+        <v>4.804100608815844</v>
       </c>
       <c r="E44">
-        <v>6.578485711874396</v>
+        <v>9.535944071038795</v>
       </c>
       <c r="F44">
-        <v>2.860306119416281</v>
+        <v>4.146200261797339</v>
       </c>
       <c r="G44">
-        <v>4.243639596529877</v>
+        <v>6.15143235427418</v>
       </c>
       <c r="H44">
-        <v>0.691935328391036</v>
+        <v>1.003005384719876</v>
       </c>
       <c r="I44">
-        <v>31.12837866379152</v>
+        <v>45.12261498481779</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>13.26856264911137</v>
+        <v>19.23364690092927</v>
       </c>
       <c r="C45">
-        <v>0.7536629465244136</v>
+        <v>1.092483592918432</v>
       </c>
       <c r="D45">
-        <v>4.019308413736978</v>
+        <v>5.826249674521343</v>
       </c>
       <c r="E45">
-        <v>3.432253414890988</v>
+        <v>4.975275167498503</v>
       </c>
       <c r="F45">
-        <v>3.271720013304924</v>
+        <v>4.742571532329834</v>
       </c>
       <c r="G45">
-        <v>4.793741025709677</v>
+        <v>6.948840252050465</v>
       </c>
       <c r="H45">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I45">
-        <v>29.84677527589659</v>
+        <v>43.26484729123446</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>11.39086235643031</v>
+        <v>16.51179786797334</v>
       </c>
       <c r="C46">
-        <v>1.162794260351952</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="D46">
-        <v>6.205248077348318</v>
+        <v>8.994911778208388</v>
       </c>
       <c r="E46">
-        <v>3.146232296983404</v>
+        <v>4.560668903540293</v>
       </c>
       <c r="F46">
-        <v>3.585178218172461</v>
+        <v>5.196949643211733</v>
       </c>
       <c r="G46">
-        <v>5.108084699526706</v>
+        <v>7.404501907922626</v>
       </c>
       <c r="H46">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I46">
-        <v>30.9059267214314</v>
+        <v>44.80015638663143</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>8.47692082339</v>
+        <v>12.2878495761662</v>
       </c>
       <c r="C47">
-        <v>0.8828623087857418</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="D47">
-        <v>3.596223317554138</v>
+        <v>5.212960235098041</v>
       </c>
       <c r="E47">
-        <v>1.358600310061016</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="F47">
-        <v>3.173764324283818</v>
+        <v>4.60057837267924</v>
       </c>
       <c r="G47">
-        <v>3.457780411987307</v>
+        <v>5.012278214593779</v>
       </c>
       <c r="H47">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I47">
-        <v>21.13835575394842</v>
+        <v>30.64142525376698</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>8.897650349550904</v>
+        <v>12.89772446321857</v>
       </c>
       <c r="C48">
-        <v>0.8828623087857418</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="D48">
-        <v>3.173138221371298</v>
+        <v>4.599670795674744</v>
       </c>
       <c r="E48">
-        <v>1.358600310061016</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="F48">
-        <v>2.977852946241607</v>
+        <v>4.316592053378051</v>
       </c>
       <c r="G48">
-        <v>3.064850819716023</v>
+        <v>4.442701144753576</v>
       </c>
       <c r="H48">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I48">
-        <v>20.73936347149939</v>
+        <v>30.06305991912129</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>8.975563224765882</v>
+        <v>13.01066425711716</v>
       </c>
       <c r="C49">
-        <v>0.6890632653937495</v>
+        <v>0.9988421420968526</v>
       </c>
       <c r="D49">
-        <v>3.384680769462719</v>
+        <v>4.906315515386393</v>
       </c>
       <c r="E49">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F49">
-        <v>2.350936536506532</v>
+        <v>3.407835831614251</v>
       </c>
       <c r="G49">
-        <v>2.829093064353252</v>
+        <v>4.100954902849455</v>
       </c>
       <c r="H49">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I49">
-        <v>19.78551785210721</v>
+        <v>28.68039848648933</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25_재비산.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>16.86191122905895</v>
+        <v>11.46043516648098</v>
       </c>
       <c r="C2">
-        <v>1.498263213145279</v>
+        <v>1.018315669162328</v>
       </c>
       <c r="D2">
-        <v>6.541754020515191</v>
+        <v>4.446195144117404</v>
       </c>
       <c r="E2">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="F2">
-        <v>5.708125017953871</v>
+        <v>3.879607465711899</v>
       </c>
       <c r="G2">
-        <v>3.873124074913375</v>
+        <v>2.632423261473816</v>
       </c>
       <c r="H2">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="I2">
-        <v>37.07329852125186</v>
+        <v>25.19738885697562</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>17.41531621916204</v>
+        <v>11.83656465285578</v>
       </c>
       <c r="C3">
-        <v>1.654332297847911</v>
+        <v>1.124390218033404</v>
       </c>
       <c r="D3">
-        <v>6.643968927085742</v>
+        <v>4.515666943244237</v>
       </c>
       <c r="E3">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="F3">
-        <v>5.509334594443041</v>
+        <v>3.744496757950788</v>
       </c>
       <c r="G3">
-        <v>3.07571617713709</v>
+        <v>2.090453766464501</v>
       </c>
       <c r="H3">
-        <v>0.6686702564799173</v>
+        <v>0.4544711461258225</v>
       </c>
       <c r="I3">
-        <v>36.83306665996768</v>
+        <v>25.03411189306741</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>17.64119580695921</v>
+        <v>11.99008689219243</v>
       </c>
       <c r="C4">
-        <v>1.529477030085806</v>
+        <v>1.039530578936543</v>
       </c>
       <c r="D4">
-        <v>6.746183833656289</v>
+        <v>4.585138742371072</v>
       </c>
       <c r="E4">
-        <v>1.762076621822386</v>
+        <v>1.197620163482161</v>
       </c>
       <c r="F4">
-        <v>5.140152379351496</v>
+        <v>3.493576872108725</v>
       </c>
       <c r="G4">
-        <v>3.07571617713709</v>
+        <v>2.090453766464501</v>
       </c>
       <c r="H4">
-        <v>0.6129477351065907</v>
+        <v>0.4165985506153373</v>
       </c>
       <c r="I4">
-        <v>36.50774958411886</v>
+        <v>24.81300556617077</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>19.07553118947126</v>
+        <v>12.96495311198016</v>
       </c>
       <c r="C5">
-        <v>1.279766494561593</v>
+        <v>0.869811300742822</v>
       </c>
       <c r="D5">
-        <v>7.052828553367942</v>
+        <v>4.793554139751574</v>
       </c>
       <c r="E5">
-        <v>3.005895413697013</v>
+        <v>2.042999102410746</v>
       </c>
       <c r="F5">
-        <v>5.054956483561139</v>
+        <v>3.435672283068249</v>
       </c>
       <c r="G5">
-        <v>2.961800763169051</v>
+        <v>2.013029552891742</v>
       </c>
       <c r="H5">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="I5">
-        <v>38.98800411156126</v>
+        <v>26.49874544595014</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>21.77479226364747</v>
+        <v>14.79954387205313</v>
       </c>
       <c r="C6">
-        <v>1.217338860680539</v>
+        <v>0.8273814811943915</v>
       </c>
       <c r="D6">
-        <v>6.439539113944641</v>
+        <v>4.37672334499057</v>
       </c>
       <c r="E6">
-        <v>6.633700223331335</v>
+        <v>4.508687674285785</v>
       </c>
       <c r="F6">
-        <v>4.259794789517814</v>
+        <v>2.895229452023806</v>
       </c>
       <c r="G6">
-        <v>1.480900381584525</v>
+        <v>1.006514776445871</v>
       </c>
       <c r="H6">
-        <v>0.5015026923599379</v>
+        <v>0.3408533595943669</v>
       </c>
       <c r="I6">
-        <v>42.30756832506626</v>
+        <v>28.75493396058792</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>23.24300958432908</v>
+        <v>15.79743842774136</v>
       </c>
       <c r="C7">
-        <v>0.4682072541078996</v>
+        <v>0.3182236466132276</v>
       </c>
       <c r="D7">
-        <v>4.395240982533642</v>
+        <v>2.98728736245388</v>
       </c>
       <c r="E7">
-        <v>6.944654921299993</v>
+        <v>4.72003240901793</v>
       </c>
       <c r="F7">
-        <v>2.75466729722152</v>
+        <v>1.872248378975394</v>
       </c>
       <c r="G7">
-        <v>1.480900381584525</v>
+        <v>1.006514776445871</v>
       </c>
       <c r="H7">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="I7">
-        <v>39.84390563480992</v>
+        <v>27.08047095635252</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>17.68637172451864</v>
+        <v>12.02079134005976</v>
       </c>
       <c r="C8">
-        <v>0.5930625218700062</v>
+        <v>0.4030832857100882</v>
       </c>
       <c r="D8">
-        <v>6.030679487662441</v>
+        <v>4.09883614848323</v>
       </c>
       <c r="E8">
-        <v>4.146062639582086</v>
+        <v>2.817929796428616</v>
       </c>
       <c r="F8">
-        <v>2.044701498968551</v>
+        <v>1.389710136971426</v>
       </c>
       <c r="G8">
-        <v>1.366984967616485</v>
+        <v>0.9290905628731118</v>
       </c>
       <c r="H8">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="I8">
-        <v>31.97930788296486</v>
+        <v>21.7351864615472</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>14.08359229915372</v>
+        <v>9.572111622640175</v>
       </c>
       <c r="C9">
-        <v>0.6242763388105328</v>
+        <v>0.4242981954843034</v>
       </c>
       <c r="D9">
-        <v>3.781951543110346</v>
+        <v>2.570456567692873</v>
       </c>
       <c r="E9">
-        <v>7.877519015205961</v>
+        <v>5.354066613214371</v>
       </c>
       <c r="F9">
-        <v>0.937154853693919</v>
+        <v>0.6369504794452372</v>
       </c>
       <c r="G9">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="H9">
-        <v>0.1671675641199793</v>
+        <v>0.1136177865314556</v>
       </c>
       <c r="I9">
-        <v>29.06647740964703</v>
+        <v>19.75544025502705</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>11.66668070972398</v>
+        <v>7.929423661738013</v>
       </c>
       <c r="C10">
-        <v>0.3121381694052664</v>
+        <v>0.2121490977421517</v>
       </c>
       <c r="D10">
-        <v>3.168662103687046</v>
+        <v>2.153625772931867</v>
       </c>
       <c r="E10">
-        <v>3.938759507602981</v>
+        <v>2.677033306607186</v>
       </c>
       <c r="F10">
-        <v>0.8803575898336815</v>
+        <v>0.5983474200849197</v>
       </c>
       <c r="G10">
-        <v>1.936562037456687</v>
+        <v>1.316211630736908</v>
       </c>
       <c r="H10">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I10">
-        <v>21.95888263908297</v>
+        <v>14.92466348535153</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>8.289780872156246</v>
+        <v>5.634266183655083</v>
       </c>
       <c r="C11">
-        <v>0.6242763388105328</v>
+        <v>0.4242981954843034</v>
       </c>
       <c r="D11">
-        <v>1.635438505128798</v>
+        <v>1.111548786029351</v>
       </c>
       <c r="E11">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="F11">
-        <v>0.9655534856240381</v>
+        <v>0.6562520091253958</v>
       </c>
       <c r="G11">
-        <v>1.366984967616485</v>
+        <v>0.9290905628731118</v>
       </c>
       <c r="H11">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="I11">
-        <v>14.97065244264135</v>
+        <v>10.17501452760206</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>5.093584704826249</v>
+        <v>3.461926497041476</v>
       </c>
       <c r="C12">
-        <v>0.6242763388105328</v>
+        <v>0.4242981954843034</v>
       </c>
       <c r="D12">
-        <v>0.9199341591349488</v>
+        <v>0.62524619214151</v>
       </c>
       <c r="E12">
-        <v>0.9328640939059692</v>
+        <v>0.6340342041964386</v>
       </c>
       <c r="F12">
-        <v>0.5395740066722564</v>
+        <v>0.3667290639230154</v>
       </c>
       <c r="G12">
-        <v>1.025238725712364</v>
+        <v>0.6968179221548337</v>
       </c>
       <c r="H12">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="I12">
-        <v>9.246917071808971</v>
+        <v>6.284797265962548</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>3.614073404754765</v>
+        <v>2.456355829386414</v>
       </c>
       <c r="C13">
-        <v>0.9364145082157992</v>
+        <v>0.6364472932264552</v>
       </c>
       <c r="D13">
-        <v>1.022149065705499</v>
+        <v>0.6947179912683442</v>
       </c>
       <c r="E13">
-        <v>0.6219093959373129</v>
+        <v>0.4226894694642921</v>
       </c>
       <c r="F13">
-        <v>0.5679726386023753</v>
+        <v>0.386030593603174</v>
       </c>
       <c r="G13">
-        <v>1.253069553648445</v>
+        <v>0.8516663493003526</v>
       </c>
       <c r="I13">
-        <v>8.015588566864196</v>
+        <v>5.447907526249032</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>2.383029651260175</v>
+        <v>1.619659625001665</v>
       </c>
       <c r="C14">
-        <v>0.9988421420968526</v>
+        <v>0.6788771127748854</v>
       </c>
       <c r="D14">
-        <v>0.6132894394232992</v>
+        <v>0.4168307947610065</v>
       </c>
       <c r="E14">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="F14">
-        <v>0.6247699024626128</v>
+        <v>0.4246336529634914</v>
       </c>
       <c r="G14">
-        <v>1.822646623488646</v>
+        <v>1.238787417164149</v>
       </c>
       <c r="H14">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I14">
-        <v>6.809254978073568</v>
+        <v>4.628005932907829</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>1.818330681767241</v>
+        <v>1.235854026660039</v>
       </c>
       <c r="C15">
-        <v>0.7491316065726394</v>
+        <v>0.509157834581164</v>
       </c>
       <c r="D15">
-        <v>1.124363972276049</v>
+        <v>0.7641897903951788</v>
       </c>
       <c r="E15">
-        <v>0.4146062639582084</v>
+        <v>0.2817929796428615</v>
       </c>
       <c r="F15">
-        <v>0.482776742812019</v>
+        <v>0.3281260045626979</v>
       </c>
       <c r="G15">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="H15">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="I15">
-        <v>6.295470105685376</v>
+        <v>4.278804816881541</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>1.66021497030922</v>
+        <v>1.128388459124382</v>
       </c>
       <c r="C16">
-        <v>0.2809243524647397</v>
+        <v>0.1909341879679365</v>
       </c>
       <c r="D16">
-        <v>1.328793785417148</v>
+        <v>0.9031333886488474</v>
       </c>
       <c r="E16">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="F16">
-        <v>0.4543781108819002</v>
+        <v>0.3088244748825393</v>
       </c>
       <c r="G16">
-        <v>1.366984967616485</v>
+        <v>0.9290905628731118</v>
       </c>
       <c r="H16">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I16">
-        <v>5.457973406031476</v>
+        <v>3.709588403739448</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>3.343017899398157</v>
+        <v>2.272129142182432</v>
       </c>
       <c r="C17">
-        <v>0.4057796202268465</v>
+        <v>0.2757938270647972</v>
       </c>
       <c r="D17">
-        <v>2.044298131410997</v>
+        <v>1.389435982536688</v>
       </c>
       <c r="E17">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="F17">
-        <v>1.050749381414394</v>
+        <v>0.7141565981658721</v>
       </c>
       <c r="G17">
-        <v>2.050477451424727</v>
+        <v>1.393635844309667</v>
       </c>
       <c r="H17">
-        <v>0.1671675641199793</v>
+        <v>0.1136177865314556</v>
       </c>
       <c r="I17">
-        <v>9.37244474596376</v>
+        <v>6.370113915523059</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>7.363674562187833</v>
+        <v>5.004825002374816</v>
       </c>
       <c r="C18">
-        <v>0.2497105355242132</v>
+        <v>0.1697192781937213</v>
       </c>
       <c r="D18">
-        <v>3.270877010257596</v>
+        <v>2.223097572058702</v>
       </c>
       <c r="E18">
-        <v>4.975275167498503</v>
+        <v>3.381515755714337</v>
       </c>
       <c r="F18">
-        <v>2.413883714060095</v>
+        <v>1.64063002281349</v>
       </c>
       <c r="G18">
-        <v>3.759208660945333</v>
+        <v>2.554999047901058</v>
       </c>
       <c r="H18">
-        <v>0.1671675641199793</v>
+        <v>0.1136177865314556</v>
       </c>
       <c r="I18">
-        <v>22.19979721459355</v>
+        <v>15.08840446558758</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>12.96548833955772</v>
+        <v>8.812176537923753</v>
       </c>
       <c r="C19">
-        <v>0.4369934371673729</v>
+        <v>0.2970087368390124</v>
       </c>
       <c r="D19">
-        <v>6.030679487662441</v>
+        <v>4.09883614848323</v>
       </c>
       <c r="E19">
-        <v>10.26150503296566</v>
+        <v>6.974376246160825</v>
       </c>
       <c r="F19">
-        <v>4.089402997937102</v>
+        <v>2.779420273942853</v>
       </c>
       <c r="G19">
-        <v>6.721009424114385</v>
+        <v>4.5680286007928</v>
       </c>
       <c r="H19">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="I19">
-        <v>41.06230393313795</v>
+        <v>27.90857249924732</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>17.56213795123019</v>
+        <v>11.9363541084246</v>
       </c>
       <c r="C20">
-        <v>0.4682072541078996</v>
+        <v>0.3182236466132276</v>
       </c>
       <c r="D20">
-        <v>5.315175141668592</v>
+        <v>3.61253355459539</v>
       </c>
       <c r="E20">
-        <v>8.914034675101485</v>
+        <v>6.058549062321524</v>
       </c>
       <c r="F20">
-        <v>3.975808470216626</v>
+        <v>2.702214155222218</v>
       </c>
       <c r="G20">
-        <v>5.809686112370061</v>
+        <v>3.948634892210725</v>
       </c>
       <c r="H20">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="I20">
-        <v>42.60227481842811</v>
+        <v>28.95523537449254</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>13.92547658769571</v>
+        <v>9.464646055104517</v>
       </c>
       <c r="C21">
-        <v>0.4994210710484263</v>
+        <v>0.3394385563874427</v>
       </c>
       <c r="D21">
-        <v>2.657587570834296</v>
+        <v>1.806266777297695</v>
       </c>
       <c r="E21">
-        <v>3.731456375623877</v>
+        <v>2.536136816785755</v>
       </c>
       <c r="F21">
-        <v>3.123849512313063</v>
+        <v>2.123168264817457</v>
       </c>
       <c r="G21">
-        <v>4.214870316817495</v>
+        <v>2.864695902192095</v>
       </c>
       <c r="H21">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="I21">
-        <v>28.37555151982617</v>
+        <v>19.28584275462691</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>16.48920990919362</v>
+        <v>11.2071234715755</v>
       </c>
       <c r="C22">
-        <v>1.560690847026332</v>
+        <v>1.060745488710758</v>
       </c>
       <c r="D22">
-        <v>8.279407432214541</v>
+        <v>5.62721572927359</v>
       </c>
       <c r="E22">
-        <v>3.835107941613429</v>
+        <v>2.606585061696469</v>
       </c>
       <c r="F22">
-        <v>5.906915441464702</v>
+        <v>4.01471817347301</v>
       </c>
       <c r="G22">
-        <v>7.632332735858708</v>
+        <v>5.187422309374874</v>
       </c>
       <c r="H22">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="I22">
-        <v>43.92655439286464</v>
+        <v>29.85530061614615</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>14.81770095949454</v>
+        <v>10.07105890048429</v>
       </c>
       <c r="C23">
-        <v>1.623118480907386</v>
+        <v>1.103175308259189</v>
       </c>
       <c r="D23">
-        <v>6.746183833656289</v>
+        <v>4.585138742371072</v>
       </c>
       <c r="E23">
-        <v>2.383986017759699</v>
+        <v>1.620309632946454</v>
       </c>
       <c r="F23">
-        <v>6.389692184276721</v>
+        <v>4.342844178035708</v>
       </c>
       <c r="G23">
-        <v>5.809686112370061</v>
+        <v>3.948634892210725</v>
       </c>
       <c r="H23">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="I23">
-        <v>38.04898019533132</v>
+        <v>25.86052463185987</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>15.55180961983535</v>
+        <v>10.57000617832841</v>
       </c>
       <c r="C24">
-        <v>1.623118480907386</v>
+        <v>1.103175308259189</v>
       </c>
       <c r="D24">
-        <v>6.030679487662441</v>
+        <v>4.09883614848323</v>
       </c>
       <c r="E24">
-        <v>2.280334451770146</v>
+        <v>1.549861388035739</v>
       </c>
       <c r="F24">
-        <v>5.963712705324939</v>
+        <v>4.053321232833328</v>
       </c>
       <c r="G24">
-        <v>5.126193628561817</v>
+        <v>3.484089610774168</v>
       </c>
       <c r="H24">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="I24">
-        <v>37.13307358779533</v>
+        <v>25.23801582181891</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>15.68733737251366</v>
+        <v>10.6621195219304</v>
       </c>
       <c r="C25">
-        <v>1.248552677621066</v>
+        <v>0.8485963909686067</v>
       </c>
       <c r="D25">
-        <v>6.337324207374092</v>
+        <v>4.307251545863735</v>
       </c>
       <c r="E25">
-        <v>2.176682885780594</v>
+        <v>1.479413143125023</v>
       </c>
       <c r="F25">
-        <v>4.714172900399714</v>
+        <v>3.204053926906345</v>
       </c>
       <c r="G25">
-        <v>4.784447386657696</v>
+        <v>3.251816970055891</v>
       </c>
       <c r="H25">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="I25">
-        <v>35.33857507996011</v>
+        <v>24.01835966742339</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>16.139096548108</v>
+        <v>10.9691640006037</v>
       </c>
       <c r="C26">
-        <v>1.342194128442646</v>
+        <v>0.9122411202912521</v>
       </c>
       <c r="D26">
-        <v>5.621819861380242</v>
+        <v>3.820948951975893</v>
       </c>
       <c r="E26">
-        <v>1.243818791874626</v>
+        <v>0.8453789389285843</v>
       </c>
       <c r="F26">
-        <v>6.020509969185178</v>
+        <v>4.091924292193644</v>
       </c>
       <c r="G26">
-        <v>6.379263182210263</v>
+        <v>4.335755960074522</v>
       </c>
       <c r="H26">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="I26">
-        <v>37.19248265218756</v>
+        <v>25.27839402815148</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>16.94096908478797</v>
+        <v>11.51416795024881</v>
       </c>
       <c r="C27">
-        <v>1.061269775977906</v>
+        <v>0.7213069323233158</v>
       </c>
       <c r="D27">
-        <v>7.870547805932339</v>
+        <v>5.349328532766252</v>
       </c>
       <c r="E27">
-        <v>2.487637583749251</v>
+        <v>1.690757877857169</v>
       </c>
       <c r="F27">
-        <v>5.054956483561139</v>
+        <v>3.435672283068249</v>
       </c>
       <c r="G27">
-        <v>2.506139107296889</v>
+        <v>1.703332698600705</v>
       </c>
       <c r="H27">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="I27">
-        <v>36.31157749091877</v>
+        <v>24.6796744434379</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>16.39885807407475</v>
+        <v>11.14571457584084</v>
       </c>
       <c r="C28">
-        <v>1.623118480907386</v>
+        <v>1.103175308259189</v>
       </c>
       <c r="D28">
-        <v>7.76833289936179</v>
+        <v>5.279856733639417</v>
       </c>
       <c r="E28">
-        <v>2.280334451770146</v>
+        <v>1.549861388035739</v>
       </c>
       <c r="F28">
-        <v>4.770970164259952</v>
+        <v>3.242656986266661</v>
       </c>
       <c r="G28">
-        <v>5.126193628561817</v>
+        <v>3.484089610774168</v>
       </c>
       <c r="H28">
-        <v>0.891560341973223</v>
+        <v>0.6059615281677633</v>
       </c>
       <c r="I28">
-        <v>38.85936804090906</v>
+        <v>26.41131613098378</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>18.03648508560424</v>
+        <v>12.25875081103156</v>
       </c>
       <c r="C29">
-        <v>1.404621762323699</v>
+        <v>0.9546709398396825</v>
       </c>
       <c r="D29">
-        <v>7.563903086220692</v>
+        <v>5.140913135385746</v>
       </c>
       <c r="E29">
-        <v>3.005895413697013</v>
+        <v>2.042999102410746</v>
       </c>
       <c r="F29">
-        <v>4.742571532329834</v>
+        <v>3.223355456586503</v>
       </c>
       <c r="G29">
-        <v>3.07571617713709</v>
+        <v>2.090453766464501</v>
       </c>
       <c r="H29">
-        <v>1.39306303433316</v>
+        <v>0.94681488776213</v>
       </c>
       <c r="I29">
-        <v>39.22225609164573</v>
+        <v>26.65795809948088</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>22.59925275910716</v>
+        <v>15.35990004563191</v>
       </c>
       <c r="C30">
-        <v>0.686703972691586</v>
+        <v>0.4667280150327337</v>
       </c>
       <c r="D30">
-        <v>4.804100608815844</v>
+        <v>3.265174558961218</v>
       </c>
       <c r="E30">
-        <v>4.975275167498503</v>
+        <v>3.381515755714337</v>
       </c>
       <c r="F30">
-        <v>4.11780162986722</v>
+        <v>2.798721803623012</v>
       </c>
       <c r="G30">
-        <v>2.392223693328848</v>
+        <v>1.625908485027945</v>
       </c>
       <c r="H30">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="I30">
-        <v>40.29975060916241</v>
+        <v>27.39029240562746</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>23.51406508968569</v>
+        <v>15.98166511494535</v>
       </c>
       <c r="C31">
-        <v>0.9052006912752727</v>
+        <v>0.6152323834522399</v>
       </c>
       <c r="D31">
-        <v>6.030679487662441</v>
+        <v>4.09883614848323</v>
       </c>
       <c r="E31">
-        <v>7.255609619268649</v>
+        <v>4.931377143750078</v>
       </c>
       <c r="F31">
-        <v>3.152248144243182</v>
+        <v>2.142469794497615</v>
       </c>
       <c r="G31">
-        <v>2.164392865392768</v>
+        <v>1.471060057882427</v>
       </c>
       <c r="H31">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="I31">
-        <v>43.24508598302131</v>
+        <v>29.39213102505288</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>18.60118405509718</v>
+        <v>12.64255640937319</v>
       </c>
       <c r="C32">
-        <v>0.6554901557510594</v>
+        <v>0.4455131052585184</v>
       </c>
       <c r="D32">
-        <v>5.110745328527495</v>
+        <v>3.473589956341722</v>
       </c>
       <c r="E32">
-        <v>4.871623601508951</v>
+        <v>3.311067510803624</v>
       </c>
       <c r="F32">
-        <v>2.215093290549263</v>
+        <v>1.505519315052379</v>
       </c>
       <c r="G32">
-        <v>1.708731209520606</v>
+        <v>1.16136320359139</v>
       </c>
       <c r="H32">
-        <v>0.5015026923599379</v>
+        <v>0.3408533595943669</v>
       </c>
       <c r="I32">
-        <v>33.66437033331449</v>
+        <v>22.88046286001519</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>15.57439757861507</v>
+        <v>10.58535840226207</v>
       </c>
       <c r="C33">
-        <v>0.9364145082157992</v>
+        <v>0.6364472932264552</v>
       </c>
       <c r="D33">
-        <v>3.986381356251445</v>
+        <v>2.709400165946542</v>
       </c>
       <c r="E33">
-        <v>6.633700223331335</v>
+        <v>4.508687674285785</v>
       </c>
       <c r="F33">
-        <v>1.419931596505938</v>
+        <v>0.965076484007935</v>
       </c>
       <c r="G33">
-        <v>1.822646623488646</v>
+        <v>1.238787417164149</v>
       </c>
       <c r="H33">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I33">
-        <v>30.42919440778156</v>
+        <v>20.68163003240342</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>12.79607864870985</v>
+        <v>8.697034858421269</v>
       </c>
       <c r="C34">
-        <v>0.6242763388105328</v>
+        <v>0.4242981954843034</v>
       </c>
       <c r="D34">
-        <v>2.657587570834296</v>
+        <v>1.806266777297695</v>
       </c>
       <c r="E34">
-        <v>3.213198545676115</v>
+        <v>2.183895592232177</v>
       </c>
       <c r="F34">
-        <v>0.9087562217638004</v>
+        <v>0.6176489497650786</v>
       </c>
       <c r="G34">
-        <v>0.9113233117443232</v>
+        <v>0.6193937085820745</v>
       </c>
       <c r="H34">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="I34">
-        <v>21.33411072303222</v>
+        <v>14.50002846382454</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>9.046477491276772</v>
+        <v>6.148565685432861</v>
       </c>
       <c r="C35">
-        <v>0.5930625218700062</v>
+        <v>0.4030832857100882</v>
       </c>
       <c r="D35">
-        <v>2.555372664263747</v>
+        <v>1.736794978170861</v>
       </c>
       <c r="E35">
-        <v>1.762076621822386</v>
+        <v>1.197620163482161</v>
       </c>
       <c r="F35">
-        <v>0.6815671663228503</v>
+        <v>0.4632367123238089</v>
       </c>
       <c r="G35">
-        <v>1.480900381584525</v>
+        <v>1.006514776445871</v>
       </c>
       <c r="H35">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I35">
-        <v>16.17517936851361</v>
+        <v>10.99368819707614</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>5.69216561248876</v>
+        <v>3.868760431283599</v>
       </c>
       <c r="C36">
-        <v>1.092483592918432</v>
+        <v>0.7425218420975308</v>
       </c>
       <c r="D36">
-        <v>1.022149065705499</v>
+        <v>0.6947179912683442</v>
       </c>
       <c r="E36">
-        <v>0.9328640939059692</v>
+        <v>0.6340342041964386</v>
       </c>
       <c r="F36">
-        <v>0.5679726386023753</v>
+        <v>0.386030593603174</v>
       </c>
       <c r="G36">
-        <v>1.025238725712364</v>
+        <v>0.6968179221548337</v>
       </c>
       <c r="H36">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I36">
-        <v>10.38859625070672</v>
+        <v>7.060755580114405</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>4.325594106315863</v>
+        <v>2.939950883296862</v>
       </c>
       <c r="C37">
-        <v>1.310980311502119</v>
+        <v>0.8910262105170368</v>
       </c>
       <c r="D37">
-        <v>1.022149065705499</v>
+        <v>0.6947179912683442</v>
       </c>
       <c r="E37">
-        <v>0.4146062639582084</v>
+        <v>0.2817929796428615</v>
       </c>
       <c r="F37">
-        <v>0.482776742812019</v>
+        <v>0.3281260045626979</v>
       </c>
       <c r="G37">
-        <v>1.139154139680404</v>
+        <v>0.7742421357275929</v>
       </c>
       <c r="H37">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="I37">
-        <v>8.918150715467419</v>
+        <v>6.061346587057336</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>2.428205568819608</v>
+        <v>1.650364072868996</v>
       </c>
       <c r="C38">
-        <v>0.9052006912752727</v>
+        <v>0.6152323834522399</v>
       </c>
       <c r="D38">
-        <v>0.8177192525643989</v>
+        <v>0.5557743930146755</v>
       </c>
       <c r="E38">
-        <v>0.2073031319791042</v>
+        <v>0.1408964898214308</v>
       </c>
       <c r="F38">
-        <v>0.5679726386023753</v>
+        <v>0.386030593603174</v>
       </c>
       <c r="G38">
-        <v>1.139154139680404</v>
+        <v>0.7742421357275929</v>
       </c>
       <c r="H38">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="I38">
-        <v>6.177000465667816</v>
+        <v>4.198285259509079</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>1.626333032139645</v>
+        <v>1.105360123223885</v>
       </c>
       <c r="C39">
-        <v>0.6554901557510594</v>
+        <v>0.4455131052585184</v>
       </c>
       <c r="D39">
-        <v>1.226578878846598</v>
+        <v>0.833661589522013</v>
       </c>
       <c r="E39">
-        <v>0.1036515659895521</v>
+        <v>0.07044824491071539</v>
       </c>
       <c r="F39">
-        <v>0.5395740066722564</v>
+        <v>0.3667290639230154</v>
       </c>
       <c r="G39">
-        <v>1.139154139680404</v>
+        <v>0.7742421357275929</v>
       </c>
       <c r="H39">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I39">
-        <v>5.346504300452841</v>
+        <v>3.633826858076225</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>1.637627011529503</v>
+        <v>1.113036235190718</v>
       </c>
       <c r="C40">
-        <v>0.343351986345793</v>
+        <v>0.2333640075163669</v>
       </c>
       <c r="D40">
-        <v>1.124363972276049</v>
+        <v>0.7641897903951788</v>
       </c>
       <c r="E40">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="F40">
-        <v>0.5963712705324939</v>
+        <v>0.4053321232833327</v>
       </c>
       <c r="G40">
-        <v>1.480900381584525</v>
+        <v>1.006514776445871</v>
       </c>
       <c r="H40">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="I40">
-        <v>5.605014362983673</v>
+        <v>3.809526858584584</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>3.060668414651694</v>
+        <v>2.080226343011619</v>
       </c>
       <c r="C41">
-        <v>0.343351986345793</v>
+        <v>0.2333640075163669</v>
       </c>
       <c r="D41">
-        <v>1.431008691987699</v>
+        <v>0.9726051877756821</v>
       </c>
       <c r="E41">
-        <v>0.5182578299477607</v>
+        <v>0.352241224553577</v>
       </c>
       <c r="F41">
-        <v>1.448330228436057</v>
+        <v>0.9843780136880937</v>
       </c>
       <c r="G41">
-        <v>2.278308279360808</v>
+        <v>1.548484271455186</v>
       </c>
       <c r="H41">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I41">
-        <v>9.135647952103138</v>
+        <v>6.209171643511009</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>7.950961490460482</v>
+        <v>5.403982824650106</v>
       </c>
       <c r="C42">
-        <v>0.343351986345793</v>
+        <v>0.2333640075163669</v>
       </c>
       <c r="D42">
-        <v>2.657587570834296</v>
+        <v>1.806266777297695</v>
       </c>
       <c r="E42">
-        <v>4.353365771561188</v>
+        <v>2.958826286250047</v>
       </c>
       <c r="F42">
-        <v>2.868261824941994</v>
+        <v>1.949454497696029</v>
       </c>
       <c r="G42">
-        <v>4.214870316817495</v>
+        <v>2.864695902192095</v>
       </c>
       <c r="H42">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="I42">
-        <v>22.83417913194786</v>
+        <v>15.51957105968622</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>11.83609040057185</v>
+        <v>8.044565341240505</v>
       </c>
       <c r="C43">
-        <v>0.1560690847026332</v>
+        <v>0.1060745488710758</v>
       </c>
       <c r="D43">
-        <v>3.781951543110346</v>
+        <v>2.570456567692873</v>
       </c>
       <c r="E43">
-        <v>8.499428411143276</v>
+        <v>5.776756082678662</v>
       </c>
       <c r="F43">
-        <v>3.493031727404607</v>
+        <v>2.374088150659521</v>
       </c>
       <c r="G43">
-        <v>8.42974063363499</v>
+        <v>5.72939180438419</v>
       </c>
       <c r="H43">
-        <v>0.5015026923599379</v>
+        <v>0.3408533595943669</v>
       </c>
       <c r="I43">
-        <v>36.69781449292763</v>
+        <v>24.94218585512119</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>18.95129741618281</v>
+        <v>12.880515880345</v>
       </c>
       <c r="C44">
-        <v>0.5306348879889531</v>
+        <v>0.3606534661616579</v>
       </c>
       <c r="D44">
-        <v>4.804100608815844</v>
+        <v>3.265174558961218</v>
       </c>
       <c r="E44">
-        <v>9.535944071038795</v>
+        <v>6.481238531785815</v>
       </c>
       <c r="F44">
-        <v>4.146200261797339</v>
+        <v>2.818023333303171</v>
       </c>
       <c r="G44">
-        <v>6.15143235427418</v>
+        <v>4.180907532929003</v>
       </c>
       <c r="H44">
-        <v>1.003005384719876</v>
+        <v>0.6817067191887337</v>
       </c>
       <c r="I44">
-        <v>45.12261498481779</v>
+        <v>30.6682200226746</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>19.23364690092927</v>
+        <v>13.07241867951581</v>
       </c>
       <c r="C45">
-        <v>1.092483592918432</v>
+        <v>0.7425218420975308</v>
       </c>
       <c r="D45">
-        <v>5.826249674521343</v>
+        <v>3.959892550229562</v>
       </c>
       <c r="E45">
-        <v>4.975275167498503</v>
+        <v>3.381515755714337</v>
       </c>
       <c r="F45">
-        <v>4.742571532329834</v>
+        <v>3.223355456586503</v>
       </c>
       <c r="G45">
-        <v>6.948840252050465</v>
+        <v>4.722877027938317</v>
       </c>
       <c r="H45">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="I45">
-        <v>43.26484729123446</v>
+        <v>29.40556207616594</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>16.51179786797334</v>
+        <v>11.22247569550917</v>
       </c>
       <c r="C46">
-        <v>1.685546114788439</v>
+        <v>1.145605127807619</v>
       </c>
       <c r="D46">
-        <v>8.994911778208388</v>
+        <v>6.11351832316143</v>
       </c>
       <c r="E46">
-        <v>4.560668903540293</v>
+        <v>3.099722776071477</v>
       </c>
       <c r="F46">
-        <v>5.196949643211733</v>
+        <v>3.532179931469043</v>
       </c>
       <c r="G46">
-        <v>7.404501907922626</v>
+        <v>5.032573882229354</v>
       </c>
       <c r="H46">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="I46">
-        <v>44.80015638663143</v>
+        <v>30.44905650033197</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>12.2878495761662</v>
+        <v>8.351609819913802</v>
       </c>
       <c r="C47">
-        <v>1.279766494561593</v>
+        <v>0.869811300742822</v>
       </c>
       <c r="D47">
-        <v>5.212960235098041</v>
+        <v>3.543061755468556</v>
       </c>
       <c r="E47">
-        <v>1.96937975380149</v>
+        <v>1.338516653303593</v>
       </c>
       <c r="F47">
-        <v>4.60057837267924</v>
+        <v>3.12684780818571</v>
       </c>
       <c r="G47">
-        <v>5.012278214593779</v>
+        <v>3.40666539720141</v>
       </c>
       <c r="H47">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="I47">
-        <v>30.64142525376698</v>
+        <v>20.82587571236832</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>12.89772446321857</v>
+        <v>8.766119866122761</v>
       </c>
       <c r="C48">
-        <v>1.279766494561593</v>
+        <v>0.869811300742822</v>
       </c>
       <c r="D48">
-        <v>4.599670795674744</v>
+        <v>3.126230960707548</v>
       </c>
       <c r="E48">
-        <v>1.96937975380149</v>
+        <v>1.338516653303593</v>
       </c>
       <c r="F48">
-        <v>4.316592053378051</v>
+        <v>2.933832511384123</v>
       </c>
       <c r="G48">
-        <v>4.442701144753576</v>
+        <v>3.019544329337613</v>
       </c>
       <c r="H48">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="I48">
-        <v>30.06305991912129</v>
+        <v>20.43278157670331</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>13.01066425711716</v>
+        <v>8.84288098579108</v>
       </c>
       <c r="C49">
-        <v>0.9988421420968526</v>
+        <v>0.6788771127748854</v>
       </c>
       <c r="D49">
-        <v>4.906315515386393</v>
+        <v>3.334646358088052</v>
       </c>
       <c r="E49">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="F49">
-        <v>3.407835831614251</v>
+        <v>2.316183561619045</v>
       </c>
       <c r="G49">
-        <v>4.100954902849455</v>
+        <v>2.787271688619335</v>
       </c>
       <c r="H49">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="I49">
-        <v>28.68039848648933</v>
+        <v>19.49303628385867</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25_재비산.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>11.46043516648098</v>
+        <v>16.86191122905895</v>
       </c>
       <c r="C2">
-        <v>1.018315669162328</v>
+        <v>1.498263213145279</v>
       </c>
       <c r="D2">
-        <v>4.446195144117404</v>
+        <v>6.541754020515191</v>
       </c>
       <c r="E2">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F2">
-        <v>3.879607465711899</v>
+        <v>5.708125017953871</v>
       </c>
       <c r="G2">
-        <v>2.632423261473816</v>
+        <v>3.873124074913375</v>
       </c>
       <c r="H2">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I2">
-        <v>25.19738885697562</v>
+        <v>37.07329852125186</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>11.83656465285578</v>
+        <v>17.41531621916204</v>
       </c>
       <c r="C3">
-        <v>1.124390218033404</v>
+        <v>1.654332297847911</v>
       </c>
       <c r="D3">
-        <v>4.515666943244237</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="E3">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F3">
-        <v>3.744496757950788</v>
+        <v>5.509334594443041</v>
       </c>
       <c r="G3">
-        <v>2.090453766464501</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="H3">
-        <v>0.4544711461258225</v>
+        <v>0.6686702564799173</v>
       </c>
       <c r="I3">
-        <v>25.03411189306741</v>
+        <v>36.83306665996768</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>11.99008689219243</v>
+        <v>17.64119580695921</v>
       </c>
       <c r="C4">
-        <v>1.039530578936543</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="D4">
-        <v>4.585138742371072</v>
+        <v>6.746183833656289</v>
       </c>
       <c r="E4">
-        <v>1.197620163482161</v>
+        <v>1.762076621822386</v>
       </c>
       <c r="F4">
-        <v>3.493576872108725</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="G4">
-        <v>2.090453766464501</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="H4">
-        <v>0.4165985506153373</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="I4">
-        <v>24.81300556617077</v>
+        <v>36.50774958411886</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>12.96495311198016</v>
+        <v>19.07553118947126</v>
       </c>
       <c r="C5">
-        <v>0.869811300742822</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="D5">
-        <v>4.793554139751574</v>
+        <v>7.052828553367942</v>
       </c>
       <c r="E5">
-        <v>2.042999102410746</v>
+        <v>3.005895413697013</v>
       </c>
       <c r="F5">
-        <v>3.435672283068249</v>
+        <v>5.054956483561139</v>
       </c>
       <c r="G5">
-        <v>2.013029552891742</v>
+        <v>2.961800763169051</v>
       </c>
       <c r="H5">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I5">
-        <v>26.49874544595014</v>
+        <v>38.98800411156126</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>14.79954387205313</v>
+        <v>21.77479226364747</v>
       </c>
       <c r="C6">
-        <v>0.8273814811943915</v>
+        <v>1.217338860680539</v>
       </c>
       <c r="D6">
-        <v>4.37672334499057</v>
+        <v>6.439539113944641</v>
       </c>
       <c r="E6">
-        <v>4.508687674285785</v>
+        <v>6.633700223331335</v>
       </c>
       <c r="F6">
-        <v>2.895229452023806</v>
+        <v>4.259794789517814</v>
       </c>
       <c r="G6">
-        <v>1.006514776445871</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="H6">
-        <v>0.3408533595943669</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="I6">
-        <v>28.75493396058792</v>
+        <v>42.30756832506626</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>15.79743842774136</v>
+        <v>23.24300958432908</v>
       </c>
       <c r="C7">
-        <v>0.3182236466132276</v>
+        <v>0.4682072541078996</v>
       </c>
       <c r="D7">
-        <v>2.98728736245388</v>
+        <v>4.395240982533642</v>
       </c>
       <c r="E7">
-        <v>4.72003240901793</v>
+        <v>6.944654921299993</v>
       </c>
       <c r="F7">
-        <v>1.872248378975394</v>
+        <v>2.75466729722152</v>
       </c>
       <c r="G7">
-        <v>1.006514776445871</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="H7">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I7">
-        <v>27.08047095635252</v>
+        <v>39.84390563480992</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>12.02079134005976</v>
+        <v>17.68637172451864</v>
       </c>
       <c r="C8">
-        <v>0.4030832857100882</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="D8">
-        <v>4.09883614848323</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="E8">
-        <v>2.817929796428616</v>
+        <v>4.146062639582086</v>
       </c>
       <c r="F8">
-        <v>1.389710136971426</v>
+        <v>2.044701498968551</v>
       </c>
       <c r="G8">
-        <v>0.9290905628731118</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="H8">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I8">
-        <v>21.7351864615472</v>
+        <v>31.97930788296486</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>9.572111622640175</v>
+        <v>14.08359229915372</v>
       </c>
       <c r="C9">
-        <v>0.4242981954843034</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="D9">
-        <v>2.570456567692873</v>
+        <v>3.781951543110346</v>
       </c>
       <c r="E9">
-        <v>5.354066613214371</v>
+        <v>7.877519015205961</v>
       </c>
       <c r="F9">
-        <v>0.6369504794452372</v>
+        <v>0.937154853693919</v>
       </c>
       <c r="G9">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H9">
-        <v>0.1136177865314556</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="I9">
-        <v>19.75544025502705</v>
+        <v>29.06647740964703</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>7.929423661738013</v>
+        <v>11.66668070972398</v>
       </c>
       <c r="C10">
-        <v>0.2121490977421517</v>
+        <v>0.3121381694052664</v>
       </c>
       <c r="D10">
-        <v>2.153625772931867</v>
+        <v>3.168662103687046</v>
       </c>
       <c r="E10">
-        <v>2.677033306607186</v>
+        <v>3.938759507602981</v>
       </c>
       <c r="F10">
-        <v>0.5983474200849197</v>
+        <v>0.8803575898336815</v>
       </c>
       <c r="G10">
-        <v>1.316211630736908</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="H10">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I10">
-        <v>14.92466348535153</v>
+        <v>21.95888263908297</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>5.634266183655083</v>
+        <v>8.289780872156246</v>
       </c>
       <c r="C11">
-        <v>0.4242981954843034</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="D11">
-        <v>1.111548786029351</v>
+        <v>1.635438505128798</v>
       </c>
       <c r="E11">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F11">
-        <v>0.6562520091253958</v>
+        <v>0.9655534856240381</v>
       </c>
       <c r="G11">
-        <v>0.9290905628731118</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="H11">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I11">
-        <v>10.17501452760206</v>
+        <v>14.97065244264135</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>3.461926497041476</v>
+        <v>5.093584704826249</v>
       </c>
       <c r="C12">
-        <v>0.4242981954843034</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="D12">
-        <v>0.62524619214151</v>
+        <v>0.9199341591349488</v>
       </c>
       <c r="E12">
-        <v>0.6340342041964386</v>
+        <v>0.9328640939059692</v>
       </c>
       <c r="F12">
-        <v>0.3667290639230154</v>
+        <v>0.5395740066722564</v>
       </c>
       <c r="G12">
-        <v>0.6968179221548337</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="H12">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I12">
-        <v>6.284797265962548</v>
+        <v>9.246917071808971</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>2.456355829386414</v>
+        <v>3.614073404754765</v>
       </c>
       <c r="C13">
-        <v>0.6364472932264552</v>
+        <v>0.9364145082157992</v>
       </c>
       <c r="D13">
-        <v>0.6947179912683442</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="E13">
-        <v>0.4226894694642921</v>
+        <v>0.6219093959373129</v>
       </c>
       <c r="F13">
-        <v>0.386030593603174</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="G13">
-        <v>0.8516663493003526</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="I13">
-        <v>5.447907526249032</v>
+        <v>8.015588566864196</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>1.619659625001665</v>
+        <v>2.383029651260175</v>
       </c>
       <c r="C14">
-        <v>0.6788771127748854</v>
+        <v>0.9988421420968526</v>
       </c>
       <c r="D14">
-        <v>0.4168307947610065</v>
+        <v>0.6132894394232992</v>
       </c>
       <c r="E14">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F14">
-        <v>0.4246336529634914</v>
+        <v>0.6247699024626128</v>
       </c>
       <c r="G14">
-        <v>1.238787417164149</v>
+        <v>1.822646623488646</v>
       </c>
       <c r="H14">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I14">
-        <v>4.628005932907829</v>
+        <v>6.809254978073568</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>1.235854026660039</v>
+        <v>1.818330681767241</v>
       </c>
       <c r="C15">
-        <v>0.509157834581164</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="D15">
-        <v>0.7641897903951788</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="E15">
-        <v>0.2817929796428615</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="F15">
-        <v>0.3281260045626979</v>
+        <v>0.482776742812019</v>
       </c>
       <c r="G15">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H15">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I15">
-        <v>4.278804816881541</v>
+        <v>6.295470105685376</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>1.128388459124382</v>
+        <v>1.66021497030922</v>
       </c>
       <c r="C16">
-        <v>0.1909341879679365</v>
+        <v>0.2809243524647397</v>
       </c>
       <c r="D16">
-        <v>0.9031333886488474</v>
+        <v>1.328793785417148</v>
       </c>
       <c r="E16">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F16">
-        <v>0.3088244748825393</v>
+        <v>0.4543781108819002</v>
       </c>
       <c r="G16">
-        <v>0.9290905628731118</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="H16">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I16">
-        <v>3.709588403739448</v>
+        <v>5.457973406031476</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>2.272129142182432</v>
+        <v>3.343017899398157</v>
       </c>
       <c r="C17">
-        <v>0.2757938270647972</v>
+        <v>0.4057796202268465</v>
       </c>
       <c r="D17">
-        <v>1.389435982536688</v>
+        <v>2.044298131410997</v>
       </c>
       <c r="E17">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F17">
-        <v>0.7141565981658721</v>
+        <v>1.050749381414394</v>
       </c>
       <c r="G17">
-        <v>1.393635844309667</v>
+        <v>2.050477451424727</v>
       </c>
       <c r="H17">
-        <v>0.1136177865314556</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="I17">
-        <v>6.370113915523059</v>
+        <v>9.37244474596376</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>5.004825002374816</v>
+        <v>7.363674562187833</v>
       </c>
       <c r="C18">
-        <v>0.1697192781937213</v>
+        <v>0.2497105355242132</v>
       </c>
       <c r="D18">
-        <v>2.223097572058702</v>
+        <v>3.270877010257596</v>
       </c>
       <c r="E18">
-        <v>3.381515755714337</v>
+        <v>4.975275167498503</v>
       </c>
       <c r="F18">
-        <v>1.64063002281349</v>
+        <v>2.413883714060095</v>
       </c>
       <c r="G18">
-        <v>2.554999047901058</v>
+        <v>3.759208660945333</v>
       </c>
       <c r="H18">
-        <v>0.1136177865314556</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="I18">
-        <v>15.08840446558758</v>
+        <v>22.19979721459355</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>8.812176537923753</v>
+        <v>12.96548833955772</v>
       </c>
       <c r="C19">
-        <v>0.2970087368390124</v>
+        <v>0.4369934371673729</v>
       </c>
       <c r="D19">
-        <v>4.09883614848323</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="E19">
-        <v>6.974376246160825</v>
+        <v>10.26150503296566</v>
       </c>
       <c r="F19">
-        <v>2.779420273942853</v>
+        <v>4.089402997937102</v>
       </c>
       <c r="G19">
-        <v>4.5680286007928</v>
+        <v>6.721009424114385</v>
       </c>
       <c r="H19">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I19">
-        <v>27.90857249924732</v>
+        <v>41.06230393313795</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>11.9363541084246</v>
+        <v>17.56213795123019</v>
       </c>
       <c r="C20">
-        <v>0.3182236466132276</v>
+        <v>0.4682072541078996</v>
       </c>
       <c r="D20">
-        <v>3.61253355459539</v>
+        <v>5.315175141668592</v>
       </c>
       <c r="E20">
-        <v>6.058549062321524</v>
+        <v>8.914034675101485</v>
       </c>
       <c r="F20">
-        <v>2.702214155222218</v>
+        <v>3.975808470216626</v>
       </c>
       <c r="G20">
-        <v>3.948634892210725</v>
+        <v>5.809686112370061</v>
       </c>
       <c r="H20">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I20">
-        <v>28.95523537449254</v>
+        <v>42.60227481842811</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>9.464646055104517</v>
+        <v>13.92547658769571</v>
       </c>
       <c r="C21">
-        <v>0.3394385563874427</v>
+        <v>0.4994210710484263</v>
       </c>
       <c r="D21">
-        <v>1.806266777297695</v>
+        <v>2.657587570834296</v>
       </c>
       <c r="E21">
-        <v>2.536136816785755</v>
+        <v>3.731456375623877</v>
       </c>
       <c r="F21">
-        <v>2.123168264817457</v>
+        <v>3.123849512313063</v>
       </c>
       <c r="G21">
-        <v>2.864695902192095</v>
+        <v>4.214870316817495</v>
       </c>
       <c r="H21">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I21">
-        <v>19.28584275462691</v>
+        <v>28.37555151982617</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>11.2071234715755</v>
+        <v>16.48920990919362</v>
       </c>
       <c r="C22">
-        <v>1.060745488710758</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="D22">
-        <v>5.62721572927359</v>
+        <v>8.279407432214541</v>
       </c>
       <c r="E22">
-        <v>2.606585061696469</v>
+        <v>3.835107941613429</v>
       </c>
       <c r="F22">
-        <v>4.01471817347301</v>
+        <v>5.906915441464702</v>
       </c>
       <c r="G22">
-        <v>5.187422309374874</v>
+        <v>7.632332735858708</v>
       </c>
       <c r="H22">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I22">
-        <v>29.85530061614615</v>
+        <v>43.92655439286464</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>10.07105890048429</v>
+        <v>14.81770095949454</v>
       </c>
       <c r="C23">
-        <v>1.103175308259189</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="D23">
-        <v>4.585138742371072</v>
+        <v>6.746183833656289</v>
       </c>
       <c r="E23">
-        <v>1.620309632946454</v>
+        <v>2.383986017759699</v>
       </c>
       <c r="F23">
-        <v>4.342844178035708</v>
+        <v>6.389692184276721</v>
       </c>
       <c r="G23">
-        <v>3.948634892210725</v>
+        <v>5.809686112370061</v>
       </c>
       <c r="H23">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I23">
-        <v>25.86052463185987</v>
+        <v>38.04898019533132</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>10.57000617832841</v>
+        <v>15.55180961983535</v>
       </c>
       <c r="C24">
-        <v>1.103175308259189</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="D24">
-        <v>4.09883614848323</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="E24">
-        <v>1.549861388035739</v>
+        <v>2.280334451770146</v>
       </c>
       <c r="F24">
-        <v>4.053321232833328</v>
+        <v>5.963712705324939</v>
       </c>
       <c r="G24">
-        <v>3.484089610774168</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="H24">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I24">
-        <v>25.23801582181891</v>
+        <v>37.13307358779533</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>10.6621195219304</v>
+        <v>15.68733737251366</v>
       </c>
       <c r="C25">
-        <v>0.8485963909686067</v>
+        <v>1.248552677621066</v>
       </c>
       <c r="D25">
-        <v>4.307251545863735</v>
+        <v>6.337324207374092</v>
       </c>
       <c r="E25">
-        <v>1.479413143125023</v>
+        <v>2.176682885780594</v>
       </c>
       <c r="F25">
-        <v>3.204053926906345</v>
+        <v>4.714172900399714</v>
       </c>
       <c r="G25">
-        <v>3.251816970055891</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="H25">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I25">
-        <v>24.01835966742339</v>
+        <v>35.33857507996011</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>10.9691640006037</v>
+        <v>16.139096548108</v>
       </c>
       <c r="C26">
-        <v>0.9122411202912521</v>
+        <v>1.342194128442646</v>
       </c>
       <c r="D26">
-        <v>3.820948951975893</v>
+        <v>5.621819861380242</v>
       </c>
       <c r="E26">
-        <v>0.8453789389285843</v>
+        <v>1.243818791874626</v>
       </c>
       <c r="F26">
-        <v>4.091924292193644</v>
+        <v>6.020509969185178</v>
       </c>
       <c r="G26">
-        <v>4.335755960074522</v>
+        <v>6.379263182210263</v>
       </c>
       <c r="H26">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I26">
-        <v>25.27839402815148</v>
+        <v>37.19248265218756</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>11.51416795024881</v>
+        <v>16.94096908478797</v>
       </c>
       <c r="C27">
-        <v>0.7213069323233158</v>
+        <v>1.061269775977906</v>
       </c>
       <c r="D27">
-        <v>5.349328532766252</v>
+        <v>7.870547805932339</v>
       </c>
       <c r="E27">
-        <v>1.690757877857169</v>
+        <v>2.487637583749251</v>
       </c>
       <c r="F27">
-        <v>3.435672283068249</v>
+        <v>5.054956483561139</v>
       </c>
       <c r="G27">
-        <v>1.703332698600705</v>
+        <v>2.506139107296889</v>
       </c>
       <c r="H27">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I27">
-        <v>24.6796744434379</v>
+        <v>36.31157749091877</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>11.14571457584084</v>
+        <v>16.39885807407475</v>
       </c>
       <c r="C28">
-        <v>1.103175308259189</v>
+        <v>1.623118480907386</v>
       </c>
       <c r="D28">
-        <v>5.279856733639417</v>
+        <v>7.76833289936179</v>
       </c>
       <c r="E28">
-        <v>1.549861388035739</v>
+        <v>2.280334451770146</v>
       </c>
       <c r="F28">
-        <v>3.242656986266661</v>
+        <v>4.770970164259952</v>
       </c>
       <c r="G28">
-        <v>3.484089610774168</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="H28">
-        <v>0.6059615281677633</v>
+        <v>0.891560341973223</v>
       </c>
       <c r="I28">
-        <v>26.41131613098378</v>
+        <v>38.85936804090906</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>12.25875081103156</v>
+        <v>18.03648508560424</v>
       </c>
       <c r="C29">
-        <v>0.9546709398396825</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="D29">
-        <v>5.140913135385746</v>
+        <v>7.563903086220692</v>
       </c>
       <c r="E29">
-        <v>2.042999102410746</v>
+        <v>3.005895413697013</v>
       </c>
       <c r="F29">
-        <v>3.223355456586503</v>
+        <v>4.742571532329834</v>
       </c>
       <c r="G29">
-        <v>2.090453766464501</v>
+        <v>3.07571617713709</v>
       </c>
       <c r="H29">
-        <v>0.94681488776213</v>
+        <v>1.39306303433316</v>
       </c>
       <c r="I29">
-        <v>26.65795809948088</v>
+        <v>39.22225609164573</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>15.35990004563191</v>
+        <v>22.59925275910716</v>
       </c>
       <c r="C30">
-        <v>0.4667280150327337</v>
+        <v>0.686703972691586</v>
       </c>
       <c r="D30">
-        <v>3.265174558961218</v>
+        <v>4.804100608815844</v>
       </c>
       <c r="E30">
-        <v>3.381515755714337</v>
+        <v>4.975275167498503</v>
       </c>
       <c r="F30">
-        <v>2.798721803623012</v>
+        <v>4.11780162986722</v>
       </c>
       <c r="G30">
-        <v>1.625908485027945</v>
+        <v>2.392223693328848</v>
       </c>
       <c r="H30">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I30">
-        <v>27.39029240562746</v>
+        <v>40.29975060916241</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>15.98166511494535</v>
+        <v>23.51406508968569</v>
       </c>
       <c r="C31">
-        <v>0.6152323834522399</v>
+        <v>0.9052006912752727</v>
       </c>
       <c r="D31">
-        <v>4.09883614848323</v>
+        <v>6.030679487662441</v>
       </c>
       <c r="E31">
-        <v>4.931377143750078</v>
+        <v>7.255609619268649</v>
       </c>
       <c r="F31">
-        <v>2.142469794497615</v>
+        <v>3.152248144243182</v>
       </c>
       <c r="G31">
-        <v>1.471060057882427</v>
+        <v>2.164392865392768</v>
       </c>
       <c r="H31">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I31">
-        <v>29.39213102505288</v>
+        <v>43.24508598302131</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>12.64255640937319</v>
+        <v>18.60118405509718</v>
       </c>
       <c r="C32">
-        <v>0.4455131052585184</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="D32">
-        <v>3.473589956341722</v>
+        <v>5.110745328527495</v>
       </c>
       <c r="E32">
-        <v>3.311067510803624</v>
+        <v>4.871623601508951</v>
       </c>
       <c r="F32">
-        <v>1.505519315052379</v>
+        <v>2.215093290549263</v>
       </c>
       <c r="G32">
-        <v>1.16136320359139</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="H32">
-        <v>0.3408533595943669</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="I32">
-        <v>22.88046286001519</v>
+        <v>33.66437033331449</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>10.58535840226207</v>
+        <v>15.57439757861507</v>
       </c>
       <c r="C33">
-        <v>0.6364472932264552</v>
+        <v>0.9364145082157992</v>
       </c>
       <c r="D33">
-        <v>2.709400165946542</v>
+        <v>3.986381356251445</v>
       </c>
       <c r="E33">
-        <v>4.508687674285785</v>
+        <v>6.633700223331335</v>
       </c>
       <c r="F33">
-        <v>0.965076484007935</v>
+        <v>1.419931596505938</v>
       </c>
       <c r="G33">
-        <v>1.238787417164149</v>
+        <v>1.822646623488646</v>
       </c>
       <c r="H33">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I33">
-        <v>20.68163003240342</v>
+        <v>30.42919440778156</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>8.697034858421269</v>
+        <v>12.79607864870985</v>
       </c>
       <c r="C34">
-        <v>0.4242981954843034</v>
+        <v>0.6242763388105328</v>
       </c>
       <c r="D34">
-        <v>1.806266777297695</v>
+        <v>2.657587570834296</v>
       </c>
       <c r="E34">
-        <v>2.183895592232177</v>
+        <v>3.213198545676115</v>
       </c>
       <c r="F34">
-        <v>0.6176489497650786</v>
+        <v>0.9087562217638004</v>
       </c>
       <c r="G34">
-        <v>0.6193937085820745</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="H34">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I34">
-        <v>14.50002846382454</v>
+        <v>21.33411072303222</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>6.148565685432861</v>
+        <v>9.046477491276772</v>
       </c>
       <c r="C35">
-        <v>0.4030832857100882</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="D35">
-        <v>1.736794978170861</v>
+        <v>2.555372664263747</v>
       </c>
       <c r="E35">
-        <v>1.197620163482161</v>
+        <v>1.762076621822386</v>
       </c>
       <c r="F35">
-        <v>0.4632367123238089</v>
+        <v>0.6815671663228503</v>
       </c>
       <c r="G35">
-        <v>1.006514776445871</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="H35">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I35">
-        <v>10.99368819707614</v>
+        <v>16.17517936851361</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>3.868760431283599</v>
+        <v>5.69216561248876</v>
       </c>
       <c r="C36">
-        <v>0.7425218420975308</v>
+        <v>1.092483592918432</v>
       </c>
       <c r="D36">
-        <v>0.6947179912683442</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="E36">
-        <v>0.6340342041964386</v>
+        <v>0.9328640939059692</v>
       </c>
       <c r="F36">
-        <v>0.386030593603174</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="G36">
-        <v>0.6968179221548337</v>
+        <v>1.025238725712364</v>
       </c>
       <c r="H36">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I36">
-        <v>7.060755580114405</v>
+        <v>10.38859625070672</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>2.939950883296862</v>
+        <v>4.325594106315863</v>
       </c>
       <c r="C37">
-        <v>0.8910262105170368</v>
+        <v>1.310980311502119</v>
       </c>
       <c r="D37">
-        <v>0.6947179912683442</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="E37">
-        <v>0.2817929796428615</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="F37">
-        <v>0.3281260045626979</v>
+        <v>0.482776742812019</v>
       </c>
       <c r="G37">
-        <v>0.7742421357275929</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="H37">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I37">
-        <v>6.061346587057336</v>
+        <v>8.918150715467419</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>1.650364072868996</v>
+        <v>2.428205568819608</v>
       </c>
       <c r="C38">
-        <v>0.6152323834522399</v>
+        <v>0.9052006912752727</v>
       </c>
       <c r="D38">
-        <v>0.5557743930146755</v>
+        <v>0.8177192525643989</v>
       </c>
       <c r="E38">
-        <v>0.1408964898214308</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="F38">
-        <v>0.386030593603174</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="G38">
-        <v>0.7742421357275929</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="H38">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I38">
-        <v>4.198285259509079</v>
+        <v>6.177000465667816</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>1.105360123223885</v>
+        <v>1.626333032139645</v>
       </c>
       <c r="C39">
-        <v>0.4455131052585184</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="D39">
-        <v>0.833661589522013</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="E39">
-        <v>0.07044824491071539</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="F39">
-        <v>0.3667290639230154</v>
+        <v>0.5395740066722564</v>
       </c>
       <c r="G39">
-        <v>0.7742421357275929</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="H39">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I39">
-        <v>3.633826858076225</v>
+        <v>5.346504300452841</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>1.113036235190718</v>
+        <v>1.637627011529503</v>
       </c>
       <c r="C40">
-        <v>0.2333640075163669</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="D40">
-        <v>0.7641897903951788</v>
+        <v>1.124363972276049</v>
       </c>
       <c r="E40">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F40">
-        <v>0.4053321232833327</v>
+        <v>0.5963712705324939</v>
       </c>
       <c r="G40">
-        <v>1.006514776445871</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="H40">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I40">
-        <v>3.809526858584584</v>
+        <v>5.605014362983673</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>2.080226343011619</v>
+        <v>3.060668414651694</v>
       </c>
       <c r="C41">
-        <v>0.2333640075163669</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="D41">
-        <v>0.9726051877756821</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="E41">
-        <v>0.352241224553577</v>
+        <v>0.5182578299477607</v>
       </c>
       <c r="F41">
-        <v>0.9843780136880937</v>
+        <v>1.448330228436057</v>
       </c>
       <c r="G41">
-        <v>1.548484271455186</v>
+        <v>2.278308279360808</v>
       </c>
       <c r="H41">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I41">
-        <v>6.209171643511009</v>
+        <v>9.135647952103138</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>5.403982824650106</v>
+        <v>7.950961490460482</v>
       </c>
       <c r="C42">
-        <v>0.2333640075163669</v>
+        <v>0.343351986345793</v>
       </c>
       <c r="D42">
-        <v>1.806266777297695</v>
+        <v>2.657587570834296</v>
       </c>
       <c r="E42">
-        <v>2.958826286250047</v>
+        <v>4.353365771561188</v>
       </c>
       <c r="F42">
-        <v>1.949454497696029</v>
+        <v>2.868261824941994</v>
       </c>
       <c r="G42">
-        <v>2.864695902192095</v>
+        <v>4.214870316817495</v>
       </c>
       <c r="H42">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I42">
-        <v>15.51957105968622</v>
+        <v>22.83417913194786</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>8.044565341240505</v>
+        <v>11.83609040057185</v>
       </c>
       <c r="C43">
-        <v>0.1060745488710758</v>
+        <v>0.1560690847026332</v>
       </c>
       <c r="D43">
-        <v>2.570456567692873</v>
+        <v>3.781951543110346</v>
       </c>
       <c r="E43">
-        <v>5.776756082678662</v>
+        <v>8.499428411143276</v>
       </c>
       <c r="F43">
-        <v>2.374088150659521</v>
+        <v>3.493031727404607</v>
       </c>
       <c r="G43">
-        <v>5.72939180438419</v>
+        <v>8.42974063363499</v>
       </c>
       <c r="H43">
-        <v>0.3408533595943669</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="I43">
-        <v>24.94218585512119</v>
+        <v>36.69781449292763</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>12.880515880345</v>
+        <v>18.95129741618281</v>
       </c>
       <c r="C44">
-        <v>0.3606534661616579</v>
+        <v>0.5306348879889531</v>
       </c>
       <c r="D44">
-        <v>3.265174558961218</v>
+        <v>4.804100608815844</v>
       </c>
       <c r="E44">
-        <v>6.481238531785815</v>
+        <v>9.535944071038795</v>
       </c>
       <c r="F44">
-        <v>2.818023333303171</v>
+        <v>4.146200261797339</v>
       </c>
       <c r="G44">
-        <v>4.180907532929003</v>
+        <v>6.15143235427418</v>
       </c>
       <c r="H44">
-        <v>0.6817067191887337</v>
+        <v>1.003005384719876</v>
       </c>
       <c r="I44">
-        <v>30.6682200226746</v>
+        <v>45.12261498481779</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>13.07241867951581</v>
+        <v>19.23364690092927</v>
       </c>
       <c r="C45">
-        <v>0.7425218420975308</v>
+        <v>1.092483592918432</v>
       </c>
       <c r="D45">
-        <v>3.959892550229562</v>
+        <v>5.826249674521343</v>
       </c>
       <c r="E45">
-        <v>3.381515755714337</v>
+        <v>4.975275167498503</v>
       </c>
       <c r="F45">
-        <v>3.223355456586503</v>
+        <v>4.742571532329834</v>
       </c>
       <c r="G45">
-        <v>4.722877027938317</v>
+        <v>6.948840252050465</v>
       </c>
       <c r="H45">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I45">
-        <v>29.40556207616594</v>
+        <v>43.26484729123446</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>11.22247569550917</v>
+        <v>16.51179786797334</v>
       </c>
       <c r="C46">
-        <v>1.145605127807619</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="D46">
-        <v>6.11351832316143</v>
+        <v>8.994911778208388</v>
       </c>
       <c r="E46">
-        <v>3.099722776071477</v>
+        <v>4.560668903540293</v>
       </c>
       <c r="F46">
-        <v>3.532179931469043</v>
+        <v>5.196949643211733</v>
       </c>
       <c r="G46">
-        <v>5.032573882229354</v>
+        <v>7.404501907922626</v>
       </c>
       <c r="H46">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I46">
-        <v>30.44905650033197</v>
+        <v>44.80015638663143</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>8.351609819913802</v>
+        <v>12.2878495761662</v>
       </c>
       <c r="C47">
-        <v>0.869811300742822</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="D47">
-        <v>3.543061755468556</v>
+        <v>5.212960235098041</v>
       </c>
       <c r="E47">
-        <v>1.338516653303593</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="F47">
-        <v>3.12684780818571</v>
+        <v>4.60057837267924</v>
       </c>
       <c r="G47">
-        <v>3.40666539720141</v>
+        <v>5.012278214593779</v>
       </c>
       <c r="H47">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I47">
-        <v>20.82587571236832</v>
+        <v>30.64142525376698</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>8.766119866122761</v>
+        <v>12.89772446321857</v>
       </c>
       <c r="C48">
-        <v>0.869811300742822</v>
+        <v>1.279766494561593</v>
       </c>
       <c r="D48">
-        <v>3.126230960707548</v>
+        <v>4.599670795674744</v>
       </c>
       <c r="E48">
-        <v>1.338516653303593</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="F48">
-        <v>2.933832511384123</v>
+        <v>4.316592053378051</v>
       </c>
       <c r="G48">
-        <v>3.019544329337613</v>
+        <v>4.442701144753576</v>
       </c>
       <c r="H48">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I48">
-        <v>20.43278157670331</v>
+        <v>30.06305991912129</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>8.84288098579108</v>
+        <v>13.01066425711716</v>
       </c>
       <c r="C49">
-        <v>0.6788771127748854</v>
+        <v>0.9988421420968526</v>
       </c>
       <c r="D49">
-        <v>3.334646358088052</v>
+        <v>4.906315515386393</v>
       </c>
       <c r="E49">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F49">
-        <v>2.316183561619045</v>
+        <v>3.407835831614251</v>
       </c>
       <c r="G49">
-        <v>2.787271688619335</v>
+        <v>4.100954902849455</v>
       </c>
       <c r="H49">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I49">
-        <v>19.49303628385867</v>
+        <v>28.68039848648933</v>
       </c>
     </row>
   </sheetData>
